--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -11,11 +11,11 @@
     <sheet name="Istruzioni Compilazione" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Prerequisiti" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TestCases" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Summary" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Summary" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$D$50</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$D$50</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$112</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$17</definedName>
   </definedNames>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="378">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -479,6 +479,28 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14T12:59:18Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad60a7fae13d4fd5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicazione mostra il messaggio di errore, errore che verrà poi gestito in back-office.</t>
+  </si>
+  <si>
     <t xml:space="preserve">RSA</t>
   </si>
   <si>
@@ -544,6 +566,22 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14T13:14:14Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35899d902b33150e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
@@ -558,6 +596,12 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14T13:34:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: ESOCKETTIMEDOUT</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -670,6 +714,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-17T10:36:22Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64677eba7946500d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.8a84a94e42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'participant' is not complete. One of '{\"urn:hl7-org:v3\":associatedEntity}' is expected."</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT6_KO</t>
   </si>
   <si>
@@ -678,6 +734,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-17T12:46:12Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326c23b5fea61617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.b55f0f4ad7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[Errore-46| codice fiscale 'prvctt01a41l219g' cittadino ed operatore: 16 cifre [A-Z0-9]{16}] "status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT7_KO</t>
   </si>
   <si>
@@ -685,11 +753,38 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-17T13:24:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22001ed4656a001b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.74ae88ddc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title": "Errore semantico.",
+    "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
+    "status": 422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT8_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-17T13:45:37Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">886fdff479fe7497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.5da0051952^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["title": "Errore semantico." ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],
+    "status": 422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT9_KO</t>
@@ -700,6 +795,20 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-17T13:59:26Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aad2e055f34551b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.9502b82dd0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title": "Errore semantico.",
+    "detail": "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
+    "status": 422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
   </si>
   <si>
@@ -708,6 +817,20 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-17T14:06:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8608d4b38a6c63db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.82b251e708^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title": "Errore vocabolario.",
+    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]",
+    "status": 400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT11_KO</t>
   </si>
   <si>
@@ -716,6 +839,20 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-18T12:10:38Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773d885a4858f450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.97c490229e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title": "Errore vocabolario.",
+    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: NONPRESENTE]",
+    "status": 400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
   </si>
   <si>
@@ -724,6 +861,20 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-18T12:23:17Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c0a462df85eb02d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.84466634cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title": "Errore semantico.",
+    "detail": "[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
+    "status": 422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
   </si>
   <si>
@@ -731,11 +882,37 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-18T12:37:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">618844d6b20f27a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.e54f9a68b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-18T12:54:53Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a74732293daf871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.e22226bc4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title": "Errore di sintassi.",
+    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
+    "status": 400</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -746,6 +923,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-18T13:12:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd279f4b3a61c67b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.d4322ac948f7e81bb73033ccba83f12b901af4b4de8e3fb5428cdb727b9af5d5.f0fab37338^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
   </si>
   <si>
@@ -754,6 +943,27 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L’applicativo non gestisce la sezione </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">“Precedenti esami eseguiti”</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
@@ -762,6 +972,28 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L’applicativo non gestisce la sezione </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "DICOM Object Catalog"</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
   </si>
   <si>
@@ -770,6 +1002,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L'applicativo attualmente non gestisce la sezione  "Storia_Clinica".</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT19_KO</t>
   </si>
   <si>
@@ -800,12 +1035,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L'applicativo attualmente non gestisce la sezione  "Quesito diagnostico".</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione “Identificativi del documento”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT5_KO</t>
@@ -1175,6 +1416,12 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
   </si>
   <si>
@@ -1335,12 +1582,6 @@
   </si>
   <si>
     <t xml:space="preserve">Oscuramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIL</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1593,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1415,12 +1656,37 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1556,7 +1822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1693,12 +1959,88 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1711,10 +2053,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1851,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K23:K64 A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,8 +2276,8 @@
   </sheetPr>
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K23:K64 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3043,21 +3381,19 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="I2" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="topRight" activeCell="K64" activeCellId="0" sqref="K23:K64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="104.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="83.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="36.44"/>
@@ -3436,7 +3772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>11</v>
       </c>
@@ -3473,14 +3809,14 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="31"/>
       <c r="S14" s="32"/>
       <c r="T14" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="n">
         <v>12</v>
       </c>
@@ -3517,14 +3853,14 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
+      <c r="Q15" s="34"/>
       <c r="R15" s="31"/>
       <c r="S15" s="32"/>
       <c r="T15" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="n">
         <v>13</v>
       </c>
@@ -3547,7 +3883,7 @@
       <c r="J16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="35" t="s">
         <v>73</v>
       </c>
       <c r="L16" s="30"/>
@@ -3585,7 +3921,7 @@
       <c r="J17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="35" t="s">
         <v>76</v>
       </c>
       <c r="L17" s="30"/>
@@ -3749,7 +4085,7 @@
       <c r="D22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="36" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="28"/>
@@ -3770,39 +4106,65 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+    <row r="23" s="50" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="37" t="n">
         <v>31</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="33" t="s">
+      <c r="E23" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="40" t="n">
+        <v>45030</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="48" t="s">
         <v>88</v>
       </c>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
@@ -3812,12 +4174,12 @@
         <v>47</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>87</v>
       </c>
       <c r="F24" s="28"/>
@@ -3849,9 +4211,9 @@
         <v>77</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="28"/>
@@ -3872,7 +4234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="n">
         <v>37</v>
       </c>
@@ -3883,10 +4245,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
@@ -3906,41 +4268,67 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="n">
+    <row r="27" s="50" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="37" t="n">
         <v>39</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="40" t="n">
+        <v>45030</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33" t="s">
+      <c r="Q27" s="52"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+    </row>
+    <row r="28" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="n">
         <v>40</v>
       </c>
@@ -3948,13 +4336,13 @@
         <v>47</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
@@ -3974,7 +4362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>43</v>
       </c>
@@ -3985,10 +4373,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>94</v>
+        <v>107</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
@@ -4008,7 +4396,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>45</v>
       </c>
@@ -4019,10 +4407,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -4044,43 +4432,61 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+    <row r="31" s="50" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="37" t="n">
         <v>47</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="31" t="s">
+      <c r="D31" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="40" t="n">
+        <v>45030</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33" t="s">
+      <c r="K31" s="43"/>
+      <c r="L31" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="S31" s="47"/>
+      <c r="T31" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+    </row>
+    <row r="32" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="n">
         <v>48</v>
       </c>
@@ -4088,13 +4494,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
@@ -4116,7 +4522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="n">
         <v>51</v>
       </c>
@@ -4127,10 +4533,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="29"/>
@@ -4152,7 +4558,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="n">
         <v>63</v>
       </c>
@@ -4163,10 +4569,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
@@ -4186,7 +4592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="n">
         <v>64</v>
       </c>
@@ -4197,10 +4603,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
@@ -4220,7 +4626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>65</v>
       </c>
@@ -4231,10 +4637,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
@@ -4254,7 +4660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>66</v>
       </c>
@@ -4265,10 +4671,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
@@ -4288,7 +4694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>67</v>
       </c>
@@ -4299,10 +4705,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
@@ -4322,7 +4728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>68</v>
       </c>
@@ -4333,10 +4739,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
@@ -4356,7 +4762,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>69</v>
       </c>
@@ -4367,10 +4773,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
@@ -4390,7 +4796,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>70</v>
       </c>
@@ -4401,10 +4807,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
@@ -4424,7 +4830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>71</v>
       </c>
@@ -4435,10 +4841,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -4458,7 +4864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>72</v>
       </c>
@@ -4469,10 +4875,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
@@ -4492,7 +4898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>73</v>
       </c>
@@ -4503,10 +4909,10 @@
         <v>48</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -4526,7 +4932,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>74</v>
       </c>
@@ -4537,10 +4943,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
@@ -4560,381 +4966,667 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="n">
+    <row r="46" s="50" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="37" t="n">
         <v>75</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="33" t="s">
+      <c r="D46" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="40" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N46" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="O46" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="n">
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+    </row>
+    <row r="47" s="50" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="37" t="n">
         <v>76</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="33" t="s">
+      <c r="D47" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="40" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N47" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="n">
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+    </row>
+    <row r="48" s="50" customFormat="true" ht="158.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="37" t="n">
         <v>77</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="33" t="s">
+      <c r="D48" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="40" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="n">
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+    </row>
+    <row r="49" s="50" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="37" t="n">
         <v>78</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="33" t="s">
+      <c r="D49" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="40" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N49" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P49" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="n">
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+    </row>
+    <row r="50" s="50" customFormat="true" ht="147.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="37" t="n">
         <v>79</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="33" t="s">
+      <c r="D50" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="40" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P50" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="n">
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+    </row>
+    <row r="51" s="50" customFormat="true" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="37" t="n">
         <v>80</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="33" t="s">
+      <c r="D51" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="40" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="O51" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="n">
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="49"/>
+    </row>
+    <row r="52" s="50" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="37" t="n">
         <v>81</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="33" t="s">
+      <c r="D52" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="40" t="n">
+        <v>45034</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="O52" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="n">
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+    </row>
+    <row r="53" s="50" customFormat="true" ht="169.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="37" t="n">
         <v>82</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="33" t="s">
+      <c r="D53" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="40" t="n">
+        <v>45034</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="J53" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N53" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="O53" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P53" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25" t="n">
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49"/>
+    </row>
+    <row r="54" s="50" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="37" t="n">
         <v>83</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="33" t="s">
+      <c r="D54" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="40" t="n">
+        <v>45034</v>
+      </c>
+      <c r="G54" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J54" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="O54" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P54" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25" t="n">
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="49"/>
+    </row>
+    <row r="55" s="50" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="37" t="n">
         <v>84</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="33" t="s">
+      <c r="D55" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="40" t="n">
+        <v>45034</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N55" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="O55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="n">
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+    </row>
+    <row r="56" s="50" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="37" t="n">
         <v>85</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="33" t="s">
+      <c r="D56" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="40" t="n">
+        <v>45034</v>
+      </c>
+      <c r="G56" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N56" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="O56" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+    </row>
+    <row r="57" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
         <v>86</v>
       </c>
@@ -4945,17 +5637,21 @@
         <v>58</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
+      <c r="J57" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>207</v>
+      </c>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
@@ -4979,17 +5675,21 @@
         <v>58</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
+      <c r="J58" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="30" t="s">
+        <v>210</v>
+      </c>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
       <c r="N58" s="30"/>
@@ -5013,17 +5713,21 @@
         <v>58</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="34"/>
+      <c r="J59" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
@@ -5036,7 +5740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="84.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="n">
         <v>89</v>
       </c>
@@ -5047,17 +5751,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="34"/>
+      <c r="J60" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
@@ -5070,7 +5778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="84.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="n">
         <v>90</v>
       </c>
@@ -5081,17 +5789,21 @@
         <v>58</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="34"/>
+      <c r="J61" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
@@ -5104,7 +5816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="n">
         <v>91</v>
       </c>
@@ -5115,17 +5827,21 @@
         <v>58</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="34"/>
+      <c r="J62" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
       <c r="N62" s="30"/>
@@ -5138,7 +5854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="n">
         <v>92</v>
       </c>
@@ -5149,17 +5865,21 @@
         <v>58</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="34"/>
+      <c r="J63" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>222</v>
+      </c>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
       <c r="N63" s="30"/>
@@ -5172,7 +5892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="n">
         <v>93</v>
       </c>
@@ -5183,17 +5903,21 @@
         <v>58</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
+      <c r="J64" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="30" t="s">
+        <v>225</v>
+      </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
@@ -5217,10 +5941,10 @@
         <v>77</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="29"/>
@@ -5251,10 +5975,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="29"/>
@@ -5285,10 +6009,10 @@
         <v>77</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="29"/>
@@ -5319,10 +6043,10 @@
         <v>77</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="29"/>
@@ -5353,10 +6077,10 @@
         <v>77</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="29"/>
@@ -5387,10 +6111,10 @@
         <v>77</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="29"/>
@@ -5421,10 +6145,10 @@
         <v>77</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="29"/>
@@ -5455,10 +6179,10 @@
         <v>77</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="29"/>
@@ -5489,10 +6213,10 @@
         <v>77</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="29"/>
@@ -5523,10 +6247,10 @@
         <v>77</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="29"/>
@@ -5557,10 +6281,10 @@
         <v>77</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="29"/>
@@ -5591,10 +6315,10 @@
         <v>77</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
@@ -5625,10 +6349,10 @@
         <v>77</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
@@ -5659,10 +6383,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
@@ -5693,10 +6417,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
@@ -5727,10 +6451,10 @@
         <v>77</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
@@ -5761,10 +6485,10 @@
         <v>77</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
@@ -5795,10 +6519,10 @@
         <v>77</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="F82" s="28"/>
       <c r="G82" s="29"/>
@@ -5829,10 +6553,10 @@
         <v>77</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="29"/>
@@ -5863,10 +6587,10 @@
         <v>77</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
@@ -5897,10 +6621,10 @@
         <v>77</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="29"/>
@@ -5931,10 +6655,10 @@
         <v>77</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="29"/>
@@ -5965,10 +6689,10 @@
         <v>77</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="29"/>
@@ -5999,10 +6723,10 @@
         <v>77</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
@@ -6033,10 +6757,10 @@
         <v>77</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
@@ -6064,13 +6788,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
@@ -6098,13 +6822,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
@@ -6132,13 +6856,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
@@ -6166,13 +6890,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
@@ -6200,13 +6924,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
@@ -6234,13 +6958,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
@@ -6268,13 +6992,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
@@ -6302,13 +7026,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
@@ -6336,13 +7060,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
@@ -6370,13 +7094,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
@@ -6404,13 +7128,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
@@ -6438,13 +7162,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
@@ -6472,13 +7196,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
@@ -6506,13 +7230,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
@@ -6540,13 +7264,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
@@ -6574,13 +7298,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
@@ -6608,13 +7332,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
@@ -6642,13 +7366,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
@@ -6676,13 +7400,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
@@ -6710,13 +7434,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
@@ -6744,13 +7468,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
@@ -6778,13 +7502,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
@@ -6812,13 +7536,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
@@ -16542,13 +17266,21 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J23 L10:M23 O10:O23 J25:J27 L25:M27 O25:O27 J29:J112 L29:M112 O29:O112" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J22 L10:M23 O10:O23 J25:J26 L25:M27 O25:O27 J29:J30 L29:M112 O29:O112 J32:J45 J65:J112" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q23 Q25:Q27 Q29:Q112" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q13 Q16:Q22 Q25:Q27 Q29:Q112" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J23 J27 J31 J46:J64" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q14:Q15 Q23" type="list">
+      <formula1>Summary!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -16569,1694 +17301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D997"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H25" activeCellId="1" sqref="K23:K64 H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="36" t="n">
-        <v>191</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="36" t="n">
-        <v>192</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="36" t="n">
-        <v>208</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="36" t="n">
-        <v>224</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="36" t="n">
-        <v>240</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="36" t="n">
-        <v>256</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" s="36" t="n">
-        <v>272</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="36" t="n">
-        <v>288</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="36" t="n">
-        <v>304</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="36" t="n">
-        <v>193</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="36" t="n">
-        <v>209</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="36" t="n">
-        <v>225</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="36" t="n">
-        <v>241</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="36" t="n">
-        <v>257</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="36" t="n">
-        <v>273</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="36" t="n">
-        <v>289</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="36" t="n">
-        <v>305</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="36" t="n">
-        <v>194</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C28" s="36" t="n">
-        <v>210</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="36" t="n">
-        <v>226</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="36" t="n">
-        <v>242</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" s="36" t="n">
-        <v>258</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C32" s="36" t="n">
-        <v>274</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="36" t="n">
-        <v>290</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="36" t="n">
-        <v>306</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="36" t="n">
-        <v>195</v>
-      </c>
-      <c r="D35" s="36" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="36" t="n">
-        <v>211</v>
-      </c>
-      <c r="D36" s="36" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C37" s="36" t="n">
-        <v>227</v>
-      </c>
-      <c r="D37" s="37" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38" s="36" t="n">
-        <v>243</v>
-      </c>
-      <c r="D38" s="36" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="36" t="n">
-        <v>259</v>
-      </c>
-      <c r="D39" s="37" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C40" s="36" t="n">
-        <v>275</v>
-      </c>
-      <c r="D40" s="37" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" s="36" t="n">
-        <v>291</v>
-      </c>
-      <c r="D41" s="37" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C42" s="36" t="n">
-        <v>307</v>
-      </c>
-      <c r="D42" s="37" t="n">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C43" s="36" t="n">
-        <v>196</v>
-      </c>
-      <c r="D43" s="36" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" s="36" t="n">
-        <v>212</v>
-      </c>
-      <c r="D44" s="36" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" s="36" t="n">
-        <v>228</v>
-      </c>
-      <c r="D45" s="37" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C46" s="36" t="n">
-        <v>244</v>
-      </c>
-      <c r="D46" s="36" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C47" s="36" t="n">
-        <v>260</v>
-      </c>
-      <c r="D47" s="37" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="36" t="n">
-        <v>276</v>
-      </c>
-      <c r="D48" s="37" t="n">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C49" s="36" t="n">
-        <v>292</v>
-      </c>
-      <c r="D49" s="37" t="n">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="36" t="n">
-        <v>308</v>
-      </c>
-      <c r="D50" s="37" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="A1:D50"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K23:K64 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18267,32 +17315,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19303,4 +18351,1688 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D997"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="55" t="n">
+        <v>191</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="55" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="55" t="n">
+        <v>208</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="55" t="n">
+        <v>224</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="55" t="n">
+        <v>240</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="55" t="n">
+        <v>256</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="55" t="n">
+        <v>272</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="55" t="n">
+        <v>288</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="55" t="n">
+        <v>304</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="55" t="n">
+        <v>193</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="55" t="n">
+        <v>209</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="55" t="n">
+        <v>225</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="55" t="n">
+        <v>241</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="55" t="n">
+        <v>257</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="55" t="n">
+        <v>273</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="55" t="n">
+        <v>289</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" s="55" t="n">
+        <v>305</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="55" t="n">
+        <v>194</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="55" t="n">
+        <v>210</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" s="55" t="n">
+        <v>226</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="55" t="n">
+        <v>242</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="55" t="n">
+        <v>258</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="55" t="n">
+        <v>274</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="55" t="n">
+        <v>290</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="55" t="n">
+        <v>306</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" s="55" t="n">
+        <v>195</v>
+      </c>
+      <c r="D35" s="55" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="55" t="n">
+        <v>211</v>
+      </c>
+      <c r="D36" s="55" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="55" t="n">
+        <v>227</v>
+      </c>
+      <c r="D37" s="56" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="55" t="n">
+        <v>243</v>
+      </c>
+      <c r="D38" s="55" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" s="55" t="n">
+        <v>259</v>
+      </c>
+      <c r="D39" s="56" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="55" t="n">
+        <v>275</v>
+      </c>
+      <c r="D40" s="56" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="55" t="n">
+        <v>291</v>
+      </c>
+      <c r="D41" s="56" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="55" t="n">
+        <v>307</v>
+      </c>
+      <c r="D42" s="56" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="55" t="n">
+        <v>196</v>
+      </c>
+      <c r="D43" s="55" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="55" t="n">
+        <v>212</v>
+      </c>
+      <c r="D44" s="55" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="55" t="n">
+        <v>228</v>
+      </c>
+      <c r="D45" s="56" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>244</v>
+      </c>
+      <c r="D46" s="55" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" s="55" t="n">
+        <v>260</v>
+      </c>
+      <c r="D47" s="56" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C48" s="55" t="n">
+        <v>276</v>
+      </c>
+      <c r="D48" s="56" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="55" t="n">
+        <v>292</v>
+      </c>
+      <c r="D49" s="56" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="55" t="n">
+        <v>308</v>
+      </c>
+      <c r="D50" s="56" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A1:D50"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -330,13 +330,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-07T12:07:46Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3c6f557188837555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.ebb5a850d128760d96b2b79d70970a7594bed1bdc05448067085db46238a465d.5848252548^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-26T14:54:54Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27f432ef90bf7684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.ebb5a850d128760d96b2b79d70970a7594bed1bdc05448067085db46238a465d.1962164a1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -350,13 +350,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-07T12:11:54Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abe516ac296f4e25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.ebb5a850d128760d96b2b79d70970a7594bed1bdc05448067085db46238a465d.daa4f07077^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-26T14:56:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004f1f3dabc39e50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.2.ebb5a850d128760d96b2b79d70970a7594bed1bdc05448067085db46238a465d.d0540f191a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -1593,7 +1593,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1670,18 +1670,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1822,7 +1810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1968,74 +1956,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3381,17 +3301,17 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="P53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="83.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="33.11"/>
@@ -3789,7 +3709,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="28" t="n">
-        <v>45023</v>
+        <v>45042</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>61</v>
@@ -3833,7 +3753,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="28" t="n">
-        <v>45023</v>
+        <v>45042</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>67</v>
@@ -4106,65 +4026,59 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" s="50" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="n">
+    <row r="23" s="1" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="40" t="n">
+      <c r="F23" s="28" t="n">
         <v>45030</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="44" t="s">
+      <c r="N23" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="O23" s="43" t="s">
+      <c r="O23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="48" t="s">
+      <c r="Q23" s="34"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
@@ -4268,65 +4182,59 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" s="50" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="n">
+    <row r="27" s="1" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="25" t="n">
         <v>39</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="40" t="n">
+      <c r="F27" s="28" t="n">
         <v>45030</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43" t="s">
+      <c r="K27" s="30"/>
+      <c r="L27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="43" t="s">
+      <c r="M27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="O27" s="43" t="s">
+      <c r="O27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P27" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="48" t="s">
+      <c r="Q27" s="34"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
     </row>
     <row r="28" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="n">
@@ -4432,59 +4340,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" s="50" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37" t="n">
+    <row r="31" s="1" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="25" t="n">
         <v>47</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="40" t="n">
+      <c r="F31" s="28" t="n">
         <v>45030</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43" t="s">
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43" t="s">
+      <c r="K31" s="30"/>
+      <c r="L31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43" t="s">
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="46" t="s">
+      <c r="Q31" s="34"/>
+      <c r="R31" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48" t="s">
+      <c r="S31" s="32"/>
+      <c r="T31" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
     </row>
     <row r="32" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="n">
@@ -4966,665 +4868,599 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" s="50" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="n">
+    <row r="46" s="1" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="25" t="n">
         <v>75</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="40" t="n">
+      <c r="F46" s="28" t="n">
         <v>45033</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G46" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="I46" s="42" t="s">
+      <c r="I46" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43" t="s">
+      <c r="K46" s="30"/>
+      <c r="L46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="43" t="s">
+      <c r="M46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N46" s="44" t="s">
+      <c r="N46" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="O46" s="43" t="s">
+      <c r="O46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="43" t="s">
+      <c r="P46" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="48" t="s">
+      <c r="Q46" s="34"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-    </row>
-    <row r="47" s="50" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37" t="n">
+    </row>
+    <row r="47" s="1" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="25" t="n">
         <v>76</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="40" t="n">
+      <c r="F47" s="28" t="n">
         <v>45033</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="42" t="s">
+      <c r="I47" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43" t="s">
+      <c r="K47" s="30"/>
+      <c r="L47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M47" s="43" t="s">
+      <c r="M47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="O47" s="43" t="s">
+      <c r="O47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P47" s="43" t="s">
+      <c r="P47" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="48" t="s">
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-    </row>
-    <row r="48" s="50" customFormat="true" ht="158.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37" t="n">
+    </row>
+    <row r="48" s="1" customFormat="true" ht="158.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="25" t="n">
         <v>77</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="40" t="n">
+      <c r="F48" s="28" t="n">
         <v>45033</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="42" t="s">
+      <c r="H48" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="42" t="s">
+      <c r="I48" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43" t="s">
+      <c r="K48" s="30"/>
+      <c r="L48" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M48" s="43" t="s">
+      <c r="M48" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N48" s="44" t="s">
+      <c r="N48" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="O48" s="43" t="s">
+      <c r="O48" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P48" s="43" t="s">
+      <c r="P48" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="48" t="s">
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-    </row>
-    <row r="49" s="50" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37" t="n">
+    </row>
+    <row r="49" s="1" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="25" t="n">
         <v>78</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F49" s="40" t="n">
+      <c r="F49" s="28" t="n">
         <v>45033</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H49" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I49" s="42" t="s">
+      <c r="I49" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J49" s="43" t="s">
+      <c r="J49" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43" t="s">
+      <c r="K49" s="30"/>
+      <c r="L49" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M49" s="43" t="s">
+      <c r="M49" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N49" s="44" t="s">
+      <c r="N49" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="O49" s="43" t="s">
+      <c r="O49" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P49" s="43" t="s">
+      <c r="P49" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="48" t="s">
+      <c r="Q49" s="30"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-    </row>
-    <row r="50" s="50" customFormat="true" ht="147.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37" t="n">
+    </row>
+    <row r="50" s="1" customFormat="true" ht="147.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="25" t="n">
         <v>79</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="40" t="n">
+      <c r="F50" s="28" t="n">
         <v>45033</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="H50" s="42" t="s">
+      <c r="H50" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="I50" s="42" t="s">
+      <c r="I50" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J50" s="43" t="s">
+      <c r="J50" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43" t="s">
+      <c r="K50" s="30"/>
+      <c r="L50" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M50" s="43" t="s">
+      <c r="M50" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N50" s="44" t="s">
+      <c r="N50" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="O50" s="43" t="s">
+      <c r="O50" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P50" s="43" t="s">
+      <c r="P50" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="48" t="s">
+      <c r="Q50" s="30"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-    </row>
-    <row r="51" s="50" customFormat="true" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37" t="n">
+    </row>
+    <row r="51" s="1" customFormat="true" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="40" t="n">
+      <c r="F51" s="28" t="n">
         <v>45033</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="G51" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="42" t="s">
+      <c r="H51" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="I51" s="42" t="s">
+      <c r="I51" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J51" s="43" t="s">
+      <c r="J51" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43" t="s">
+      <c r="K51" s="30"/>
+      <c r="L51" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="43" t="s">
+      <c r="M51" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N51" s="44" t="s">
+      <c r="N51" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="O51" s="43" t="s">
+      <c r="O51" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="43" t="s">
+      <c r="P51" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="48" t="s">
+      <c r="Q51" s="30"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="49"/>
-      <c r="Y51" s="49"/>
-      <c r="Z51" s="49"/>
-    </row>
-    <row r="52" s="50" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37" t="n">
+    </row>
+    <row r="52" s="1" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="25" t="n">
         <v>81</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F52" s="40" t="n">
+      <c r="F52" s="28" t="n">
         <v>45034</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="H52" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I52" s="42" t="s">
+      <c r="I52" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="J52" s="43" t="s">
+      <c r="J52" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43" t="s">
+      <c r="K52" s="30"/>
+      <c r="L52" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M52" s="43" t="s">
+      <c r="M52" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N52" s="44" t="s">
+      <c r="N52" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="O52" s="43" t="s">
+      <c r="O52" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="43" t="s">
+      <c r="P52" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="48" t="s">
+      <c r="Q52" s="30"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-    </row>
-    <row r="53" s="50" customFormat="true" ht="169.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37" t="n">
+    </row>
+    <row r="53" s="1" customFormat="true" ht="169.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="25" t="n">
         <v>82</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="40" t="n">
+      <c r="F53" s="28" t="n">
         <v>45034</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="J53" s="43" t="s">
+      <c r="J53" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43" t="s">
+      <c r="K53" s="30"/>
+      <c r="L53" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M53" s="43" t="s">
+      <c r="M53" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N53" s="44" t="s">
+      <c r="N53" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="O53" s="43" t="s">
+      <c r="O53" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P53" s="43" t="s">
+      <c r="P53" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="48" t="s">
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-    </row>
-    <row r="54" s="50" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37" t="n">
+    </row>
+    <row r="54" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="25" t="n">
         <v>83</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F54" s="40" t="n">
+      <c r="F54" s="28" t="n">
         <v>45034</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="42" t="s">
+      <c r="H54" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="I54" s="42" t="s">
+      <c r="I54" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="J54" s="43" t="s">
+      <c r="J54" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43" t="s">
+      <c r="K54" s="30"/>
+      <c r="L54" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M54" s="43" t="s">
+      <c r="M54" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="44" t="s">
+      <c r="N54" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="O54" s="43" t="s">
+      <c r="O54" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="43" t="s">
+      <c r="P54" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="48" t="s">
+      <c r="Q54" s="30"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="49"/>
-    </row>
-    <row r="55" s="50" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37" t="n">
+    </row>
+    <row r="55" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="25" t="n">
         <v>84</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="40" t="n">
+      <c r="F55" s="28" t="n">
         <v>45034</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="H55" s="42" t="s">
+      <c r="H55" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="42" t="s">
+      <c r="I55" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="J55" s="43" t="s">
+      <c r="J55" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43" t="s">
+      <c r="K55" s="30"/>
+      <c r="L55" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M55" s="43" t="s">
+      <c r="M55" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N55" s="44" t="s">
+      <c r="N55" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="O55" s="43" t="s">
+      <c r="O55" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P55" s="43" t="s">
+      <c r="P55" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="48" t="s">
+      <c r="Q55" s="30"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-    </row>
-    <row r="56" s="50" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37" t="n">
+    </row>
+    <row r="56" s="1" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="25" t="n">
         <v>85</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F56" s="40" t="n">
+      <c r="F56" s="28" t="n">
         <v>45034</v>
       </c>
-      <c r="G56" s="51" t="s">
+      <c r="G56" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="H56" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I56" s="42" t="s">
+      <c r="I56" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="43" t="s">
+      <c r="J56" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43" t="s">
+      <c r="K56" s="30"/>
+      <c r="L56" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M56" s="43" t="s">
+      <c r="M56" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N56" s="44" t="s">
+      <c r="N56" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="O56" s="43" t="s">
+      <c r="O56" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P56" s="43" t="s">
+      <c r="P56" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="48" t="s">
+      <c r="Q56" s="30"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
     </row>
     <row r="57" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
@@ -17315,32 +17151,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18398,10 +18234,10 @@
       <c r="B2" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="38" t="s">
         <v>329</v>
       </c>
     </row>
@@ -18412,10 +18248,10 @@
       <c r="B3" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="38" t="s">
         <v>331</v>
       </c>
     </row>
@@ -18426,10 +18262,10 @@
       <c r="B4" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="39" t="s">
         <v>333</v>
       </c>
     </row>
@@ -18440,10 +18276,10 @@
       <c r="B5" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="38" t="s">
         <v>336</v>
       </c>
     </row>
@@ -18454,10 +18290,10 @@
       <c r="B6" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="39" t="s">
         <v>339</v>
       </c>
     </row>
@@ -18468,10 +18304,10 @@
       <c r="B7" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="39" t="s">
         <v>341</v>
       </c>
     </row>
@@ -18482,10 +18318,10 @@
       <c r="B8" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="39" t="s">
         <v>343</v>
       </c>
     </row>
@@ -18496,10 +18332,10 @@
       <c r="B9" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="39" t="s">
         <v>346</v>
       </c>
     </row>
@@ -18510,10 +18346,10 @@
       <c r="B10" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="55" t="n">
+      <c r="C10" s="38" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="38" t="s">
         <v>348</v>
       </c>
     </row>
@@ -18524,10 +18360,10 @@
       <c r="B11" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="55" t="n">
+      <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="38" t="s">
         <v>350</v>
       </c>
     </row>
@@ -18538,10 +18374,10 @@
       <c r="B12" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C12" s="55" t="n">
+      <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="38" t="s">
         <v>351</v>
       </c>
     </row>
@@ -18552,10 +18388,10 @@
       <c r="B13" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="55" t="n">
+      <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="39" t="s">
         <v>352</v>
       </c>
     </row>
@@ -18566,10 +18402,10 @@
       <c r="B14" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="55" t="n">
+      <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="38" t="s">
         <v>353</v>
       </c>
     </row>
@@ -18580,10 +18416,10 @@
       <c r="B15" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="55" t="n">
+      <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="39" t="s">
         <v>354</v>
       </c>
     </row>
@@ -18594,10 +18430,10 @@
       <c r="B16" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C16" s="55" t="n">
+      <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="39" t="s">
         <v>355</v>
       </c>
     </row>
@@ -18608,10 +18444,10 @@
       <c r="B17" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="55" t="n">
+      <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="39" t="s">
         <v>356</v>
       </c>
     </row>
@@ -18622,10 +18458,10 @@
       <c r="B18" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C18" s="55" t="n">
+      <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="39" t="s">
         <v>357</v>
       </c>
     </row>
@@ -18636,10 +18472,10 @@
       <c r="B19" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="55" t="n">
+      <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="38" t="s">
         <v>359</v>
       </c>
     </row>
@@ -18650,10 +18486,10 @@
       <c r="B20" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="55" t="n">
+      <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="38" t="s">
         <v>360</v>
       </c>
     </row>
@@ -18664,10 +18500,10 @@
       <c r="B21" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="55" t="n">
+      <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="39" t="s">
         <v>361</v>
       </c>
     </row>
@@ -18678,10 +18514,10 @@
       <c r="B22" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C22" s="55" t="n">
+      <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="38" t="s">
         <v>362</v>
       </c>
     </row>
@@ -18692,10 +18528,10 @@
       <c r="B23" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C23" s="55" t="n">
+      <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="39" t="s">
         <v>363</v>
       </c>
     </row>
@@ -18706,10 +18542,10 @@
       <c r="B24" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C24" s="55" t="n">
+      <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="39" t="s">
         <v>364</v>
       </c>
     </row>
@@ -18720,10 +18556,10 @@
       <c r="B25" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C25" s="55" t="n">
+      <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="39" t="s">
         <v>365</v>
       </c>
     </row>
@@ -18734,10 +18570,10 @@
       <c r="B26" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="55" t="n">
+      <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="39" t="s">
         <v>366</v>
       </c>
     </row>
@@ -18748,10 +18584,10 @@
       <c r="B27" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C27" s="55" t="n">
+      <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="38" t="s">
         <v>368</v>
       </c>
     </row>
@@ -18762,10 +18598,10 @@
       <c r="B28" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C28" s="55" t="n">
+      <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="38" t="s">
         <v>369</v>
       </c>
     </row>
@@ -18776,10 +18612,10 @@
       <c r="B29" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="55" t="n">
+      <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="40" t="s">
         <v>370</v>
       </c>
     </row>
@@ -18790,10 +18626,10 @@
       <c r="B30" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="55" t="n">
+      <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="38" t="s">
         <v>371</v>
       </c>
     </row>
@@ -18804,10 +18640,10 @@
       <c r="B31" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C31" s="55" t="n">
+      <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="39" t="s">
         <v>372</v>
       </c>
     </row>
@@ -18818,10 +18654,10 @@
       <c r="B32" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C32" s="55" t="n">
+      <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="39" t="s">
         <v>373</v>
       </c>
     </row>
@@ -18832,10 +18668,10 @@
       <c r="B33" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C33" s="55" t="n">
+      <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="39" t="s">
         <v>374</v>
       </c>
     </row>
@@ -18846,10 +18682,10 @@
       <c r="B34" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C34" s="55" t="n">
+      <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="39" t="s">
         <v>375</v>
       </c>
     </row>
@@ -18860,10 +18696,10 @@
       <c r="B35" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C35" s="55" t="n">
+      <c r="C35" s="38" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="55" t="n">
+      <c r="D35" s="38" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18874,10 +18710,10 @@
       <c r="B36" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="55" t="n">
+      <c r="C36" s="38" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="55" t="n">
+      <c r="D36" s="38" t="n">
         <v>220</v>
       </c>
     </row>
@@ -18888,10 +18724,10 @@
       <c r="B37" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C37" s="55" t="n">
+      <c r="C37" s="38" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="56" t="n">
+      <c r="D37" s="39" t="n">
         <v>236</v>
       </c>
     </row>
@@ -18902,10 +18738,10 @@
       <c r="B38" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C38" s="55" t="n">
+      <c r="C38" s="38" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="55" t="n">
+      <c r="D38" s="38" t="n">
         <v>252</v>
       </c>
     </row>
@@ -18916,10 +18752,10 @@
       <c r="B39" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C39" s="55" t="n">
+      <c r="C39" s="38" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="56" t="n">
+      <c r="D39" s="39" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18930,10 +18766,10 @@
       <c r="B40" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C40" s="55" t="n">
+      <c r="C40" s="38" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="56" t="n">
+      <c r="D40" s="39" t="n">
         <v>284</v>
       </c>
     </row>
@@ -18944,10 +18780,10 @@
       <c r="B41" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C41" s="55" t="n">
+      <c r="C41" s="38" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="56" t="n">
+      <c r="D41" s="39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -18958,10 +18794,10 @@
       <c r="B42" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C42" s="55" t="n">
+      <c r="C42" s="38" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="56" t="n">
+      <c r="D42" s="39" t="n">
         <v>316</v>
       </c>
     </row>
@@ -18972,10 +18808,10 @@
       <c r="B43" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C43" s="55" t="n">
+      <c r="C43" s="38" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="55" t="n">
+      <c r="D43" s="38" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18986,10 +18822,10 @@
       <c r="B44" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C44" s="55" t="n">
+      <c r="C44" s="38" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="55" t="n">
+      <c r="D44" s="38" t="n">
         <v>223</v>
       </c>
     </row>
@@ -19000,10 +18836,10 @@
       <c r="B45" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C45" s="55" t="n">
+      <c r="C45" s="38" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="56" t="n">
+      <c r="D45" s="39" t="n">
         <v>239</v>
       </c>
     </row>
@@ -19014,10 +18850,10 @@
       <c r="B46" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="55" t="n">
+      <c r="C46" s="38" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="55" t="n">
+      <c r="D46" s="38" t="n">
         <v>255</v>
       </c>
     </row>
@@ -19028,10 +18864,10 @@
       <c r="B47" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C47" s="55" t="n">
+      <c r="C47" s="38" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="56" t="n">
+      <c r="D47" s="39" t="n">
         <v>271</v>
       </c>
     </row>
@@ -19042,10 +18878,10 @@
       <c r="B48" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C48" s="55" t="n">
+      <c r="C48" s="38" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="56" t="n">
+      <c r="D48" s="39" t="n">
         <v>287</v>
       </c>
     </row>
@@ -19056,10 +18892,10 @@
       <c r="B49" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="55" t="n">
+      <c r="C49" s="38" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="56" t="n">
+      <c r="D49" s="39" t="n">
         <v>303</v>
       </c>
     </row>
@@ -19070,10 +18906,10 @@
       <c r="B50" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C50" s="55" t="n">
+      <c r="C50" s="38" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="56" t="n">
+      <c r="D50" s="39" t="n">
         <v>319</v>
       </c>
     </row>

--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="380">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -371,7 +371,7 @@
   </si>
   <si>
     <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale  “Conclusioni”. 
-L'applicativo non gestisce le sezioni opzionali “DICOM Object Catalog”, “Quesito diagnostico”, "Storia_Clinica", “Precedenti esami eseguiti” e “Suggerimenti per il medico prescrittore”.</t>
+L'applicativo attualmente non gestisce le sezioni opzionali “DICOM Object Catalog”, “Quesito diagnostico”, "Storia_Clinica", “Precedenti esami eseguiti” e “Suggerimenti per il medico prescrittore”.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT4</t>
@@ -382,7 +382,35 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale “Conclusioni”, non gestisce la altre sezioni opzionali.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale “Conclusioni”,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> attualmente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> non gestisce la altre sezioni opzionali.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VPS</t>
@@ -498,7 +526,10 @@
     <t xml:space="preserve">"title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicazione mostra il messaggio di errore, errore che verrà poi gestito in back-office.</t>
+    <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, raccomandando di riprovare in un secondo momento l’operazione e nel caso non si dovesse risolvere in tempi brevi di contattare l’help-desk aziendale per la risoluzione.
+Il servizio di manutenzione software aziendale, analizzerà giornalmente i log per rilevare questa tipologia di errore ed interverrà autonomamente, o sotto richiesta dell’help-desk, per la risoluzione dell’errore.
+Risolto l’errore, il medico sarà contattato per riprendere il processo documentale dal punto in cui si era bloccato al fine di consentire il re-invio al gateway per la validazione.
+Se l’operatore sanitario, in collaborazione con l’help-desk, hanno la possibilità di correggere l’errore (es: anagrafica errata) è possibile ri-validare il documento dopo la correzione. In caso contrario il processo clinico prosegue e in backoffice si valuterà se è possibile risolvere il problema e quindi rivalidare il documento. Se il Gateway non fosse disponibile in fase di validazione il processo clinico prosegue, il documento verrà memorizzato nel DataBase aziendale ed al ripristinarsi del servizio il documento re-inviato al gateway per la validazione e successivi step di invio al Repository Aziendale e al FSE regionale.</t>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -601,7 +632,14 @@
     <t xml:space="preserve">2023-04-14T13:34:46Z</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: ESOCKETTIMEDOUT</t>
+    <t xml:space="preserve">TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, raccomandando di riprovare in un secondo momento l’operazione e nel caso non si dovesse risolvere in tempi brevi di contattare l’help-desk aziendale per la risoluzione.
+Il servizio di manutenzione software aziendale, analizzerà giornalmente i log per rilevare questa tipologia di errore ed interverrà autonomamente, o sotto richiesta dell’help-desk, per la risoluzione dell’errore.
+Risolto l’errore, il medico sarà contattato per riprendere il processo documentale dal punto in cui si era bloccato al fine di consentire il re-invio al gateway per la validazione.
+Se il Gateway non fosse disponibile in fase di validazione il processo clinico prosegue, il documento verrà memorizzato nel DataBase aziendale ed al ripristinarsi del servizio il documento re-inviato al gateway per la validazione e successivi step di invio al Repository Aziendale e al FSE regionale.
+Per quanto riguarda gli errori di timeout non sono previste code di reinvio automatico. Ogni errore sarà gestito puntualmente come sopra descritto.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -724,6 +762,9 @@
   </si>
   <si>
     <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'participant' is not complete. One of '{\"urn:hl7-org:v3\":associatedEntity}' is expected."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In caso di segnalazione di errore da parte gateway sul campo confidentialityCode, viene segnalato l’errore all’utente medico che potrà correggere e quindi riattivare il processo di validazione. Nel caso non ci riuscisse l’errore sarà segnalato all’help-desk che prenderà contatto con il medico per la risoluzione.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT6_KO</t>
@@ -951,7 +992,26 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L’applicativo non gestisce la sezione </t>
+      <t xml:space="preserve">L’applicativo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> attualmente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">non gestisce la sezione </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +1040,26 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L’applicativo non gestisce la sezione </t>
+      <t xml:space="preserve">L’applicativo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> attualmente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">non gestisce la sezione </t>
     </r>
     <r>
       <rPr>
@@ -1046,7 +1125,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non gestisce la sezione “Identificativi del documento”</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L’applicativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> attualmente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> non gestisce la sezione “Identificativi del documento”</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT5_KO</t>
@@ -1593,7 +1700,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1663,6 +1770,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
@@ -1670,6 +1783,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1810,7 +1928,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1955,8 +2073,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2109,7 +2231,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2318,7 @@
   </sheetPr>
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3303,8 +3425,8 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3692,7 +3814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>11</v>
       </c>
@@ -3736,7 +3858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="n">
         <v>12</v>
       </c>
@@ -3780,7 +3902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="n">
         <v>13</v>
       </c>
@@ -3818,7 +3940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="n">
         <v>14</v>
       </c>
@@ -3856,7 +3978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="n">
         <v>24</v>
       </c>
@@ -3890,7 +4012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>25</v>
       </c>
@@ -3924,7 +4046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>26</v>
       </c>
@@ -3958,7 +4080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>27</v>
       </c>
@@ -3992,7 +4114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>29</v>
       </c>
@@ -4026,7 +4148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>31</v>
       </c>
@@ -4080,7 +4202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
         <v>32</v>
       </c>
@@ -4114,7 +4236,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="n">
         <v>35</v>
       </c>
@@ -4148,7 +4270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="n">
         <v>37</v>
       </c>
@@ -4182,7 +4304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="n">
         <v>39</v>
       </c>
@@ -4236,7 +4358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="n">
         <v>40</v>
       </c>
@@ -4270,7 +4392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>43</v>
       </c>
@@ -4304,7 +4426,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>45</v>
       </c>
@@ -4340,7 +4462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="n">
         <v>47</v>
       </c>
@@ -4374,10 +4496,14 @@
       <c r="M31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30" t="s">
+      <c r="N31" s="30" t="s">
         <v>112</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="Q31" s="34"/>
       <c r="R31" s="31" t="s">
@@ -4388,7 +4514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="n">
         <v>48</v>
       </c>
@@ -4399,7 +4525,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>109</v>
@@ -4424,7 +4550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="n">
         <v>51</v>
       </c>
@@ -4435,7 +4561,7 @@
         <v>77</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="27" t="s">
         <v>109</v>
@@ -4460,7 +4586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="n">
         <v>63</v>
       </c>
@@ -4471,10 +4597,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
@@ -4494,7 +4620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="n">
         <v>64</v>
       </c>
@@ -4505,10 +4631,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
@@ -4528,7 +4654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>65</v>
       </c>
@@ -4539,10 +4665,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
@@ -4562,7 +4688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>66</v>
       </c>
@@ -4573,10 +4699,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
@@ -4596,7 +4722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>67</v>
       </c>
@@ -4607,10 +4733,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
@@ -4630,7 +4756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>68</v>
       </c>
@@ -4641,10 +4767,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
@@ -4664,7 +4790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>69</v>
       </c>
@@ -4675,10 +4801,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
@@ -4698,7 +4824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>70</v>
       </c>
@@ -4709,10 +4835,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
@@ -4732,7 +4858,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>71</v>
       </c>
@@ -4743,10 +4869,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -4766,7 +4892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>72</v>
       </c>
@@ -4777,10 +4903,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
@@ -4800,7 +4926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>73</v>
       </c>
@@ -4811,10 +4937,10 @@
         <v>48</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -4834,7 +4960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>74</v>
       </c>
@@ -4845,10 +4971,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
@@ -4868,7 +4994,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>75</v>
       </c>
@@ -4879,22 +5005,22 @@
         <v>58</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>64</v>
@@ -4907,13 +5033,13 @@
         <v>64</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="Q46" s="34"/>
       <c r="R46" s="31"/>
@@ -4922,7 +5048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>76</v>
       </c>
@@ -4933,22 +5059,22 @@
         <v>58</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F47" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>64</v>
@@ -4961,7 +5087,7 @@
         <v>64</v>
       </c>
       <c r="N47" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O47" s="30" t="s">
         <v>64</v>
@@ -4976,7 +5102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="true" ht="158.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="n">
         <v>77</v>
       </c>
@@ -4987,22 +5113,22 @@
         <v>58</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F48" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>64</v>
@@ -5015,13 +5141,13 @@
         <v>64</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="30" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="Q48" s="30"/>
       <c r="R48" s="31"/>
@@ -5030,7 +5156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="n">
         <v>78</v>
       </c>
@@ -5041,22 +5167,22 @@
         <v>58</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F49" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>64</v>
@@ -5069,7 +5195,7 @@
         <v>64</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O49" s="30" t="s">
         <v>64</v>
@@ -5084,7 +5210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="true" ht="147.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="n">
         <v>79</v>
       </c>
@@ -5095,22 +5221,22 @@
         <v>58</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F50" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J50" s="30" t="s">
         <v>64</v>
@@ -5123,7 +5249,7 @@
         <v>64</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O50" s="30" t="s">
         <v>64</v>
@@ -5138,7 +5264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="true" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="n">
         <v>80</v>
       </c>
@@ -5149,22 +5275,22 @@
         <v>58</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F51" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>64</v>
@@ -5177,7 +5303,7 @@
         <v>64</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O51" s="30" t="s">
         <v>64</v>
@@ -5192,7 +5318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="n">
         <v>81</v>
       </c>
@@ -5203,22 +5329,22 @@
         <v>58</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F52" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>64</v>
@@ -5231,7 +5357,7 @@
         <v>64</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O52" s="30" t="s">
         <v>64</v>
@@ -5246,7 +5372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="true" ht="169.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>82</v>
       </c>
@@ -5257,22 +5383,22 @@
         <v>58</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F53" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>64</v>
@@ -5285,7 +5411,7 @@
         <v>64</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O53" s="30" t="s">
         <v>64</v>
@@ -5300,7 +5426,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>83</v>
       </c>
@@ -5311,22 +5437,22 @@
         <v>58</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F54" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J54" s="30" t="s">
         <v>64</v>
@@ -5339,7 +5465,7 @@
         <v>64</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O54" s="30" t="s">
         <v>64</v>
@@ -5354,7 +5480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>84</v>
       </c>
@@ -5365,22 +5491,22 @@
         <v>58</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F55" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J55" s="30" t="s">
         <v>64</v>
@@ -5393,7 +5519,7 @@
         <v>64</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O55" s="30" t="s">
         <v>64</v>
@@ -5408,7 +5534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="n">
         <v>85</v>
       </c>
@@ -5419,22 +5545,22 @@
         <v>58</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F56" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J56" s="30" t="s">
         <v>64</v>
@@ -5447,7 +5573,7 @@
         <v>64</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O56" s="30" t="s">
         <v>64</v>
@@ -5462,7 +5588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
         <v>86</v>
       </c>
@@ -5473,10 +5599,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
@@ -5486,7 +5612,7 @@
         <v>72</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
@@ -5500,7 +5626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="n">
         <v>87</v>
       </c>
@@ -5511,10 +5637,10 @@
         <v>58</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="29"/>
@@ -5524,7 +5650,7 @@
         <v>72</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -5538,7 +5664,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="n">
         <v>88</v>
       </c>
@@ -5549,10 +5675,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
@@ -5562,7 +5688,7 @@
         <v>72</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
@@ -5576,7 +5702,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="84.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="n">
         <v>89</v>
       </c>
@@ -5587,10 +5713,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
@@ -5600,7 +5726,7 @@
         <v>72</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -5614,7 +5740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="84.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="n">
         <v>90</v>
       </c>
@@ -5625,10 +5751,10 @@
         <v>58</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
@@ -5638,7 +5764,7 @@
         <v>72</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
@@ -5652,7 +5778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="n">
         <v>91</v>
       </c>
@@ -5663,10 +5789,10 @@
         <v>58</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -5676,7 +5802,7 @@
         <v>72</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
@@ -5690,7 +5816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="n">
         <v>92</v>
       </c>
@@ -5701,10 +5827,10 @@
         <v>58</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
@@ -5714,7 +5840,7 @@
         <v>72</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
@@ -5728,7 +5854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="n">
         <v>93</v>
       </c>
@@ -5739,10 +5865,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
@@ -5752,7 +5878,7 @@
         <v>72</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
@@ -5777,10 +5903,10 @@
         <v>77</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="29"/>
@@ -5811,10 +5937,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="29"/>
@@ -5845,10 +5971,10 @@
         <v>77</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="29"/>
@@ -5879,10 +6005,10 @@
         <v>77</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="29"/>
@@ -5913,10 +6039,10 @@
         <v>77</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="29"/>
@@ -5947,10 +6073,10 @@
         <v>77</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="29"/>
@@ -5981,10 +6107,10 @@
         <v>77</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="29"/>
@@ -6015,10 +6141,10 @@
         <v>77</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="29"/>
@@ -6049,10 +6175,10 @@
         <v>77</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="29"/>
@@ -6083,10 +6209,10 @@
         <v>77</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="29"/>
@@ -6117,10 +6243,10 @@
         <v>77</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="29"/>
@@ -6151,10 +6277,10 @@
         <v>77</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
@@ -6185,10 +6311,10 @@
         <v>77</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
@@ -6219,10 +6345,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
@@ -6253,10 +6379,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
@@ -6287,10 +6413,10 @@
         <v>77</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
@@ -6321,10 +6447,10 @@
         <v>77</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
@@ -6355,10 +6481,10 @@
         <v>77</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F82" s="28"/>
       <c r="G82" s="29"/>
@@ -6389,10 +6515,10 @@
         <v>77</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="29"/>
@@ -6423,10 +6549,10 @@
         <v>77</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
@@ -6457,10 +6583,10 @@
         <v>77</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="29"/>
@@ -6491,10 +6617,10 @@
         <v>77</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="29"/>
@@ -6525,10 +6651,10 @@
         <v>77</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="29"/>
@@ -6559,10 +6685,10 @@
         <v>77</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
@@ -6593,10 +6719,10 @@
         <v>77</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
@@ -6627,10 +6753,10 @@
         <v>96</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
@@ -6661,10 +6787,10 @@
         <v>96</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
@@ -6695,10 +6821,10 @@
         <v>96</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
@@ -6729,10 +6855,10 @@
         <v>96</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
@@ -6763,10 +6889,10 @@
         <v>96</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
@@ -6797,10 +6923,10 @@
         <v>96</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
@@ -6831,10 +6957,10 @@
         <v>96</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
@@ -6865,10 +6991,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
@@ -6899,10 +7025,10 @@
         <v>96</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
@@ -6933,10 +7059,10 @@
         <v>96</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
@@ -6967,10 +7093,10 @@
         <v>96</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
@@ -7001,10 +7127,10 @@
         <v>96</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
@@ -7035,10 +7161,10 @@
         <v>96</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
@@ -7069,10 +7195,10 @@
         <v>96</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
@@ -7103,10 +7229,10 @@
         <v>96</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
@@ -7137,10 +7263,10 @@
         <v>96</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
@@ -7171,10 +7297,10 @@
         <v>96</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
@@ -7205,10 +7331,10 @@
         <v>96</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
@@ -7239,10 +7365,10 @@
         <v>96</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
@@ -7273,10 +7399,10 @@
         <v>96</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
@@ -7307,10 +7433,10 @@
         <v>96</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
@@ -7341,10 +7467,10 @@
         <v>96</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
@@ -7375,10 +7501,10 @@
         <v>96</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
@@ -17139,7 +17265,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -17151,32 +17277,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18196,7 +18322,7 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
@@ -18221,24 +18347,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="38" t="s">
         <v>329</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18246,13 +18372,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18260,41 +18386,41 @@
         <v>58</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>339</v>
+        <v>329</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18302,13 +18428,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>341</v>
+        <v>329</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18316,55 +18442,55 @@
         <v>96</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>343</v>
+        <v>329</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>346</v>
+        <v>329</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="38" t="n">
+        <v>329</v>
+      </c>
+      <c r="C10" s="39" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>348</v>
+      <c r="D10" s="39" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C11" s="39" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>350</v>
+      <c r="D11" s="39" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18372,13 +18498,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C12" s="39" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>351</v>
+      <c r="D12" s="39" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18386,41 +18512,41 @@
         <v>58</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C13" s="39" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>352</v>
+      <c r="D13" s="40" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C14" s="39" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>353</v>
+      <c r="D14" s="39" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C15" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>354</v>
+      <c r="D15" s="40" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18428,13 +18554,13 @@
         <v>77</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C16" s="39" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>355</v>
+      <c r="D16" s="40" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18442,41 +18568,41 @@
         <v>96</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C17" s="39" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>356</v>
+      <c r="D17" s="40" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C18" s="39" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>357</v>
+      <c r="D18" s="40" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C19" s="39" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>359</v>
+      <c r="D19" s="39" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18484,13 +18610,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C20" s="39" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>360</v>
+      <c r="D20" s="39" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18498,41 +18624,41 @@
         <v>58</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C21" s="39" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>361</v>
+      <c r="D21" s="40" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C22" s="39" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>362</v>
+      <c r="D22" s="39" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C23" s="39" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>363</v>
+      <c r="D23" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18540,13 +18666,13 @@
         <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C24" s="39" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>364</v>
+      <c r="D24" s="40" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18554,41 +18680,41 @@
         <v>96</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C25" s="39" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>365</v>
+      <c r="D25" s="40" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C26" s="38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C26" s="39" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>366</v>
+      <c r="D26" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C27" s="39" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>368</v>
+      <c r="D27" s="39" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18596,13 +18722,13 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C28" s="39" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>369</v>
+      <c r="D28" s="39" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18610,41 +18736,41 @@
         <v>58</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C29" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C29" s="39" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>370</v>
+      <c r="D29" s="41" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C30" s="39" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>371</v>
+      <c r="D30" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C31" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C31" s="39" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>372</v>
+      <c r="D31" s="40" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18652,13 +18778,13 @@
         <v>77</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C32" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C32" s="39" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>373</v>
+      <c r="D32" s="40" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18666,40 +18792,40 @@
         <v>96</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C33" s="39" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>374</v>
+      <c r="D33" s="40" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C34" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="C34" s="39" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>375</v>
+      <c r="D34" s="40" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C35" s="39" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="39" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18708,12 +18834,12 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C36" s="39" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="39" t="n">
         <v>220</v>
       </c>
     </row>
@@ -18722,40 +18848,40 @@
         <v>58</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C37" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C37" s="39" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="40" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C38" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C38" s="39" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="39" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C39" s="39" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="40" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18764,12 +18890,12 @@
         <v>77</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C40" s="39" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="40" t="n">
         <v>284</v>
       </c>
     </row>
@@ -18778,40 +18904,40 @@
         <v>96</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C41" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C41" s="39" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="40" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C42" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C42" s="39" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="40" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C43" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C43" s="39" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="39" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18820,12 +18946,12 @@
         <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C44" s="39" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="39" t="n">
         <v>223</v>
       </c>
     </row>
@@ -18834,40 +18960,40 @@
         <v>58</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C45" s="39" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="40" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C46" s="39" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="39" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C47" s="39" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="40" t="n">
         <v>271</v>
       </c>
     </row>
@@ -18876,12 +19002,12 @@
         <v>77</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C48" s="39" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="40" t="n">
         <v>287</v>
       </c>
     </row>
@@ -18890,26 +19016,26 @@
         <v>96</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C49" s="39" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="40" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C50" s="38" t="n">
+        <v>379</v>
+      </c>
+      <c r="C50" s="39" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="40" t="n">
         <v>319</v>
       </c>
     </row>

--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="467">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -382,35 +382,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale “Conclusioni”,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> attualmente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> non gestisce la altre sezioni opzionali.</t>
-    </r>
+    <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale “Conclusioni”, attualmente  non gestisce la altre sezioni opzionali.</t>
   </si>
   <si>
     <t xml:space="preserve">VPS</t>
@@ -424,6 +396,15 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T10:29:06Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22f4473bc0eeec45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.8d5a010eff7541a5336b2fb9f9d844ba96a79547455f6842e2a746e8a4724b80.e932171865^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT2</t>
   </si>
   <si>
@@ -432,6 +413,15 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T10:31:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c7a36fd3761c1e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.8d5a010eff7541a5336b2fb9f9d844ba96a79547455f6842e2a746e8a4724b80.8a16112560^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT3</t>
   </si>
   <si>
@@ -440,12 +430,24 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T10:32:50Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03d4508b442488b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.51730b294d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo non gestisce le sezioni opzionali "Inquadramento clinico iniziale", "Encounters", "Decorso Ospedaliero", "Complicanze", "Interventi, Prestazioni, Consulenze e Richieste", "Accertamenti", "Parametri Vitali", "erapia farmacologica in Pronto Soccorso", "Piano di cura alla dimissione", "Terapia farmacologica alla dimissione".</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -541,6 +543,15 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T11:45:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2188ad1aed46ac74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Il campo purpose_of_use non è valorizzato","status":403</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
@@ -619,6 +630,15 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T11:54:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac4de89c2709400c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"detail":"Il campo action_id non è corretto","status":403</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
@@ -992,26 +1012,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L’applicativo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> attualmente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">non gestisce la sezione </t>
+      <t xml:space="preserve">L’applicativo  attualmente non gestisce la sezione </t>
     </r>
     <r>
       <rPr>
@@ -1040,26 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L’applicativo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> attualmente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">non gestisce la sezione </t>
+      <t xml:space="preserve">L’applicativo  attualmente non gestisce la sezione </t>
     </r>
     <r>
       <rPr>
@@ -1125,35 +1107,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L’applicativo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> attualmente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> non gestisce la sezione “Identificativi del documento”</t>
-    </r>
+    <t xml:space="preserve">L’applicativo attualmente  non gestisce la sezione “Identificativi del documento”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT5_KO</t>
@@ -1163,6 +1117,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T12:24:58Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363573d6d7b68d98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.687ee8ad67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
@@ -1170,11 +1136,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T12:35:10Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffb6f843161336d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.cd7d39d83a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-47| codice fiscale 'prvctt01a41l219g' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT7_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T13:02:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414757ebcb0a8577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.8449b9183b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']","status":422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT8_KO</t>
@@ -1185,6 +1175,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:08:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79e338d788dfdbe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.48eb337bc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-12| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT9_KO</t>
   </si>
   <si>
@@ -1192,6 +1194,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:13:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02f13148b27eacbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.0a37caec45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-15| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT10_KO</t>
   </si>
   <si>
@@ -1199,11 +1213,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:37:22Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9b511a8c14906915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.933b707517^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT11_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T13:47:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4e1390875ece926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.64f64ba698^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.","status":400</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT12_KO</t>
@@ -1214,6 +1252,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:54:17Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715c6d19a8b0aafc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.1e9442a1a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT13_KO</t>
   </si>
   <si>
@@ -1221,6 +1268,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:00:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10a46f959066ddc7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.3ee2fa24e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b1| Sezione Modalità di Trasporto: la sezione DEVE essere presente],[ERRORE-b2| Sezione Modalità di Trasporto: la sezione deve contenere l'elemento templateId valorizzato con l'attributo @root='2.16.840.1.113883.2.9.10.1.6.20'],[ERRORE-b3| Sezione Modalità di Trasporto: la sezione DEVE contenere un elemento 'text' e un solo elemento 'entry']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT14_KO</t>
   </si>
   <si>
@@ -1228,11 +1287,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:02:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afa8b44faa340ec1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.05c6f7c688^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b6| Sezione Motivo della Visita: la sezione DEVE contenere l'elemento 'text']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT15_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T14:12:43Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b76c1d18f29bde2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.f2cd89b701^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b11| Sezione Motivo della visita: l'elemento entry/observation/value relativo al \"Problema Principale\" DEVE essere valorizzato col value set ProblemaPrincipale_VPS],[ERRORE-b15| Sezione Motivo della visita: l'elemento entry relativo alla \"Causa di accesso\" DEVE contenere l'elemento value valorizzato tramite una stringa]","status":422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT16_KO</t>
@@ -1243,11 +1326,26 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:16:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36d33a04c1ea4307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.8aa954ecf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b83| Sezione Triage: l'elemento entry/observation/value DEVE essere valorizzato col value set CodiceTriage_VPS]","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT17_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione “Inquadramento clinico iniziale”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT18_KO</t>
@@ -1272,6 +1370,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione “Encounters”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT21_KO</t>
   </si>
   <si>
@@ -1279,6 +1380,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione "Complicanze"</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT22_KO</t>
   </si>
   <si>
@@ -1286,11 +1390,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:21:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18122451243df4c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.07c7a0fc97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b28| Sezione Dimissione: l'entry/act/performer/assignedEntity/assignedPerson/name DEVE contenere gli elementi 'family' e 'given']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T14:42:21Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a828a2c0c2bbcc90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.8cf0edbcc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title":"Errore semantico.","detail":"[ERRORE-b33| Sezione Dimissione: l'entry/act/entryRelationship relativo all'Esito DEVE contenere un elemento 'value' valorizzato secondo il value set \"EsitoTrattamento_VPS\" - @codeSystem='2.16.840.1.113883.2.9.6.1.54.5'],[ERRORE-b239| Sezione Dimissione - \"Diagnosi di Dimissione\": l'elemento entry/act/entryRelationship/observation deve contenere l'elemento 'value' con attributo @codeSystem='2.16.840.1.113883.6.103']","status":422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT24_KO</t>
@@ -1301,6 +1429,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione "Terapia Farmacologica alla dimissione"</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT25_KO</t>
   </si>
   <si>
@@ -1308,6 +1439,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:49:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1cb598d05f0f11e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.6b62ee35c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: X]","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT26_KO</t>
   </si>
   <si>
@@ -1315,11 +1458,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:56:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aee5c5c1f85e4ad6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.bf4859700a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 99, 88]","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT27_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T15:00:12Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea7c1f4a38986ff8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.b8eafc0db3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: XXX.00]","status":400</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT28_KO</t>
@@ -1700,7 +1867,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1770,12 +1937,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
@@ -1788,6 +1949,7 @@
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2073,11 +2235,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3425,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3814,7 +3976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>11</v>
       </c>
@@ -3858,7 +4020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="n">
         <v>12</v>
       </c>
@@ -3902,7 +4064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="n">
         <v>13</v>
       </c>
@@ -3940,7 +4102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="n">
         <v>14</v>
       </c>
@@ -3978,7 +4140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="n">
         <v>24</v>
       </c>
@@ -3994,11 +4156,21 @@
       <c r="E18" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="F18" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -4012,7 +4184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>25</v>
       </c>
@@ -4023,16 +4195,26 @@
         <v>77</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="F19" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -4046,7 +4228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>26</v>
       </c>
@@ -4057,16 +4239,26 @@
         <v>77</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+        <v>89</v>
+      </c>
+      <c r="F20" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -4080,7 +4272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>27</v>
       </c>
@@ -4091,17 +4283,21 @@
         <v>77</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
@@ -4125,10 +4321,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
@@ -4145,10 +4341,10 @@
       <c r="R22" s="31"/>
       <c r="S22" s="32"/>
       <c r="T22" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>31</v>
       </c>
@@ -4159,22 +4355,22 @@
         <v>58</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>45030</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>64</v>
@@ -4187,19 +4383,19 @@
         <v>64</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="34"/>
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
       <c r="T23" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4210,13 +4406,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
@@ -4233,10 +4429,10 @@
       <c r="R24" s="31"/>
       <c r="S24" s="32"/>
       <c r="T24" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="n">
         <v>35</v>
       </c>
@@ -4247,27 +4443,47 @@
         <v>77</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="F25" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="L25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
       <c r="T25" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4281,10 +4497,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
@@ -4301,10 +4517,10 @@
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
       <c r="T26" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="n">
         <v>39</v>
       </c>
@@ -4315,22 +4531,22 @@
         <v>58</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>45030</v>
       </c>
       <c r="G27" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>64</v>
@@ -4343,19 +4559,19 @@
         <v>64</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="34"/>
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
       <c r="T27" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4366,13 +4582,13 @@
         <v>47</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
@@ -4389,10 +4605,10 @@
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
       <c r="T28" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>43</v>
       </c>
@@ -4403,27 +4619,47 @@
         <v>77</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+        <v>113</v>
+      </c>
+      <c r="F29" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
+      <c r="L29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="31"/>
       <c r="S29" s="32"/>
       <c r="T29" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4437,10 +4673,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -4459,10 +4695,10 @@
       </c>
       <c r="S30" s="32"/>
       <c r="T30" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="n">
         <v>47</v>
       </c>
@@ -4473,16 +4709,16 @@
         <v>58</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>45030</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -4497,13 +4733,13 @@
         <v>64</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="O31" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P31" s="37" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="34"/>
       <c r="R31" s="31" t="s">
@@ -4511,7 +4747,7 @@
       </c>
       <c r="S31" s="32"/>
       <c r="T31" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4522,13 +4758,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
@@ -4547,10 +4783,10 @@
       </c>
       <c r="S32" s="32"/>
       <c r="T32" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="n">
         <v>51</v>
       </c>
@@ -4561,29 +4797,43 @@
         <v>77</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="F33" s="28" t="n">
+        <v>45070</v>
+      </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
+      <c r="L33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="31" t="s">
         <v>64</v>
       </c>
       <c r="S33" s="32"/>
       <c r="T33" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4597,10 +4847,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
@@ -4617,7 +4867,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="32"/>
       <c r="T34" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4631,10 +4881,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
@@ -4651,7 +4901,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="32"/>
       <c r="T35" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4665,10 +4915,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
@@ -4685,7 +4935,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
       <c r="T36" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4699,10 +4949,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
@@ -4719,7 +4969,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
       <c r="T37" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4733,10 +4983,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
@@ -4753,7 +5003,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="32"/>
       <c r="T38" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4767,10 +5017,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
@@ -4787,7 +5037,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="32"/>
       <c r="T39" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4801,10 +5051,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
@@ -4821,7 +5071,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="32"/>
       <c r="T40" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4835,10 +5085,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
@@ -4855,7 +5105,7 @@
       <c r="R41" s="31"/>
       <c r="S41" s="32"/>
       <c r="T41" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4869,10 +5119,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -4889,7 +5139,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="32"/>
       <c r="T42" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4903,10 +5153,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
@@ -4923,7 +5173,7 @@
       <c r="R43" s="31"/>
       <c r="S43" s="32"/>
       <c r="T43" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4937,10 +5187,10 @@
         <v>48</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -4957,7 +5207,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="32"/>
       <c r="T44" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4971,10 +5221,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
@@ -4991,10 +5241,10 @@
       <c r="R45" s="31"/>
       <c r="S45" s="32"/>
       <c r="T45" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>75</v>
       </c>
@@ -5005,22 +5255,22 @@
         <v>58</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F46" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>64</v>
@@ -5033,22 +5283,22 @@
         <v>64</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q46" s="34"/>
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
       <c r="T46" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>76</v>
       </c>
@@ -5059,22 +5309,22 @@
         <v>58</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F47" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>64</v>
@@ -5087,22 +5337,22 @@
         <v>64</v>
       </c>
       <c r="N47" s="30" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O47" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P47" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q47" s="30"/>
       <c r="R47" s="31"/>
       <c r="S47" s="32"/>
       <c r="T47" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="n">
         <v>77</v>
       </c>
@@ -5113,22 +5363,22 @@
         <v>58</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F48" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>64</v>
@@ -5141,22 +5391,22 @@
         <v>64</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="30" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q48" s="30"/>
       <c r="R48" s="31"/>
       <c r="S48" s="32"/>
       <c r="T48" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="n">
         <v>78</v>
       </c>
@@ -5167,22 +5417,22 @@
         <v>58</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F49" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>64</v>
@@ -5195,22 +5445,22 @@
         <v>64</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O49" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q49" s="30"/>
       <c r="R49" s="31"/>
       <c r="S49" s="32"/>
       <c r="T49" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="n">
         <v>79</v>
       </c>
@@ -5221,22 +5471,22 @@
         <v>58</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F50" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J50" s="30" t="s">
         <v>64</v>
@@ -5249,22 +5499,22 @@
         <v>64</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O50" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q50" s="30"/>
       <c r="R50" s="31"/>
       <c r="S50" s="32"/>
       <c r="T50" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="n">
         <v>80</v>
       </c>
@@ -5275,22 +5525,22 @@
         <v>58</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F51" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>64</v>
@@ -5303,22 +5553,22 @@
         <v>64</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O51" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P51" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q51" s="30"/>
       <c r="R51" s="31"/>
       <c r="S51" s="32"/>
       <c r="T51" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="n">
         <v>81</v>
       </c>
@@ -5329,22 +5579,22 @@
         <v>58</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F52" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>64</v>
@@ -5357,22 +5607,22 @@
         <v>64</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O52" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q52" s="30"/>
       <c r="R52" s="31"/>
       <c r="S52" s="32"/>
       <c r="T52" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>82</v>
       </c>
@@ -5383,22 +5633,22 @@
         <v>58</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F53" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>64</v>
@@ -5411,22 +5661,22 @@
         <v>64</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O53" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P53" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q53" s="30"/>
       <c r="R53" s="31"/>
       <c r="S53" s="32"/>
       <c r="T53" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>83</v>
       </c>
@@ -5437,22 +5687,22 @@
         <v>58</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F54" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="J54" s="30" t="s">
         <v>64</v>
@@ -5465,22 +5715,22 @@
         <v>64</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O54" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P54" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q54" s="30"/>
       <c r="R54" s="31"/>
       <c r="S54" s="32"/>
       <c r="T54" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>84</v>
       </c>
@@ -5491,22 +5741,22 @@
         <v>58</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F55" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="J55" s="30" t="s">
         <v>64</v>
@@ -5519,22 +5769,22 @@
         <v>64</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O55" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P55" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q55" s="30"/>
       <c r="R55" s="31"/>
       <c r="S55" s="32"/>
       <c r="T55" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="n">
         <v>85</v>
       </c>
@@ -5545,22 +5795,22 @@
         <v>58</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F56" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J56" s="30" t="s">
         <v>64</v>
@@ -5573,22 +5823,22 @@
         <v>64</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O56" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P56" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q56" s="30"/>
       <c r="R56" s="31"/>
       <c r="S56" s="32"/>
       <c r="T56" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
         <v>86</v>
       </c>
@@ -5599,10 +5849,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
@@ -5612,7 +5862,7 @@
         <v>72</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
@@ -5623,10 +5873,10 @@
       <c r="R57" s="31"/>
       <c r="S57" s="32"/>
       <c r="T57" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="n">
         <v>87</v>
       </c>
@@ -5637,10 +5887,10 @@
         <v>58</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="29"/>
@@ -5650,7 +5900,7 @@
         <v>72</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -5661,10 +5911,10 @@
       <c r="R58" s="31"/>
       <c r="S58" s="32"/>
       <c r="T58" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="n">
         <v>88</v>
       </c>
@@ -5675,10 +5925,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
@@ -5688,7 +5938,7 @@
         <v>72</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
@@ -5699,10 +5949,10 @@
       <c r="R59" s="31"/>
       <c r="S59" s="32"/>
       <c r="T59" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="n">
         <v>89</v>
       </c>
@@ -5713,10 +5963,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
@@ -5726,7 +5976,7 @@
         <v>72</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -5737,10 +5987,10 @@
       <c r="R60" s="31"/>
       <c r="S60" s="32"/>
       <c r="T60" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="n">
         <v>90</v>
       </c>
@@ -5751,10 +6001,10 @@
         <v>58</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
@@ -5764,7 +6014,7 @@
         <v>72</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
@@ -5775,10 +6025,10 @@
       <c r="R61" s="31"/>
       <c r="S61" s="32"/>
       <c r="T61" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="n">
         <v>91</v>
       </c>
@@ -5789,10 +6039,10 @@
         <v>58</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -5802,7 +6052,7 @@
         <v>72</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
@@ -5813,10 +6063,10 @@
       <c r="R62" s="31"/>
       <c r="S62" s="32"/>
       <c r="T62" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="n">
         <v>92</v>
       </c>
@@ -5827,10 +6077,10 @@
         <v>58</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
@@ -5840,7 +6090,7 @@
         <v>72</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
@@ -5851,10 +6101,10 @@
       <c r="R63" s="31"/>
       <c r="S63" s="32"/>
       <c r="T63" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="n">
         <v>93</v>
       </c>
@@ -5865,10 +6115,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
@@ -5878,7 +6128,7 @@
         <v>72</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
@@ -5889,10 +6139,10 @@
       <c r="R64" s="31"/>
       <c r="S64" s="32"/>
       <c r="T64" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="25" t="n">
         <v>122</v>
       </c>
@@ -5903,30 +6153,50 @@
         <v>77</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="30"/>
+        <v>245</v>
+      </c>
+      <c r="F65" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
+      <c r="L65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="Q65" s="30"/>
       <c r="R65" s="31"/>
       <c r="S65" s="32"/>
       <c r="T65" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="25" t="n">
         <v>123</v>
       </c>
@@ -5937,30 +6207,50 @@
         <v>77</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="30"/>
+        <v>251</v>
+      </c>
+      <c r="F66" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
+      <c r="L66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N66" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q66" s="30"/>
       <c r="R66" s="31"/>
       <c r="S66" s="32"/>
       <c r="T66" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="n">
         <v>124</v>
       </c>
@@ -5971,30 +6261,50 @@
         <v>77</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="30"/>
+        <v>257</v>
+      </c>
+      <c r="F67" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
+      <c r="L67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="Q67" s="30"/>
       <c r="R67" s="31"/>
       <c r="S67" s="32"/>
       <c r="T67" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="25" t="n">
         <v>125</v>
       </c>
@@ -6005,30 +6315,50 @@
         <v>77</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="30"/>
+        <v>263</v>
+      </c>
+      <c r="F68" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
+      <c r="L68" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q68" s="30"/>
       <c r="R68" s="31"/>
       <c r="S68" s="32"/>
       <c r="T68" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="n">
         <v>126</v>
       </c>
@@ -6039,30 +6369,50 @@
         <v>77</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="30"/>
+        <v>269</v>
+      </c>
+      <c r="F69" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
+      <c r="L69" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M69" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O69" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q69" s="30"/>
       <c r="R69" s="31"/>
       <c r="S69" s="32"/>
       <c r="T69" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="25" t="n">
         <v>127</v>
       </c>
@@ -6073,30 +6423,50 @@
         <v>77</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="30"/>
+        <v>275</v>
+      </c>
+      <c r="F70" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
+      <c r="L70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q70" s="30"/>
       <c r="R70" s="31"/>
       <c r="S70" s="32"/>
       <c r="T70" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="25" t="n">
         <v>128</v>
       </c>
@@ -6107,30 +6477,50 @@
         <v>77</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="30"/>
+        <v>281</v>
+      </c>
+      <c r="F71" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I71" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
+      <c r="L71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q71" s="30"/>
       <c r="R71" s="31"/>
       <c r="S71" s="32"/>
       <c r="T71" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="n">
         <v>129</v>
       </c>
@@ -6141,30 +6531,50 @@
         <v>77</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="30"/>
+        <v>287</v>
+      </c>
+      <c r="F72" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
+      <c r="L72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P72" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q72" s="30"/>
       <c r="R72" s="31"/>
       <c r="S72" s="32"/>
       <c r="T72" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="25" t="n">
         <v>130</v>
       </c>
@@ -6175,30 +6585,50 @@
         <v>77</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="30"/>
+        <v>292</v>
+      </c>
+      <c r="F73" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
+      <c r="L73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N73" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q73" s="30"/>
       <c r="R73" s="31"/>
       <c r="S73" s="32"/>
       <c r="T73" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="25" t="n">
         <v>131</v>
       </c>
@@ -6209,30 +6639,50 @@
         <v>77</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="30"/>
+        <v>298</v>
+      </c>
+      <c r="F74" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
+      <c r="L74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P74" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q74" s="30"/>
       <c r="R74" s="31"/>
       <c r="S74" s="32"/>
       <c r="T74" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="25" t="n">
         <v>132</v>
       </c>
@@ -6243,30 +6693,50 @@
         <v>77</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="30"/>
+        <v>304</v>
+      </c>
+      <c r="F75" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="J75" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
+      <c r="L75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="O75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q75" s="30"/>
       <c r="R75" s="31"/>
       <c r="S75" s="32"/>
       <c r="T75" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="n">
         <v>133</v>
       </c>
@@ -6277,30 +6747,50 @@
         <v>77</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="F76" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
+      <c r="L76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P76" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q76" s="30"/>
       <c r="R76" s="31"/>
       <c r="S76" s="32"/>
       <c r="T76" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="n">
         <v>134</v>
       </c>
@@ -6311,17 +6801,21 @@
         <v>77</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="J77" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K77" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
@@ -6331,10 +6825,10 @@
       <c r="R77" s="31"/>
       <c r="S77" s="32"/>
       <c r="T77" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="25" t="n">
         <v>135</v>
       </c>
@@ -6345,17 +6839,21 @@
         <v>77</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
+      <c r="J78" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K78" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
@@ -6365,10 +6863,10 @@
       <c r="R78" s="31"/>
       <c r="S78" s="32"/>
       <c r="T78" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="25" t="n">
         <v>136</v>
       </c>
@@ -6379,17 +6877,21 @@
         <v>77</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="J79" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L79" s="30"/>
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
@@ -6399,10 +6901,10 @@
       <c r="R79" s="31"/>
       <c r="S79" s="32"/>
       <c r="T79" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="n">
         <v>137</v>
       </c>
@@ -6413,17 +6915,21 @@
         <v>77</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
+      <c r="J80" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="30" t="s">
+        <v>324</v>
+      </c>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
@@ -6433,10 +6939,10 @@
       <c r="R80" s="31"/>
       <c r="S80" s="32"/>
       <c r="T80" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="25" t="n">
         <v>138</v>
       </c>
@@ -6447,17 +6953,21 @@
         <v>77</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
+      <c r="J81" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K81" s="30" t="s">
+        <v>327</v>
+      </c>
       <c r="L81" s="30"/>
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
@@ -6467,10 +6977,10 @@
       <c r="R81" s="31"/>
       <c r="S81" s="32"/>
       <c r="T81" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="25" t="n">
         <v>139</v>
       </c>
@@ -6481,30 +6991,50 @@
         <v>77</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="30"/>
+        <v>329</v>
+      </c>
+      <c r="F82" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="J82" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
+      <c r="L82" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q82" s="30"/>
       <c r="R82" s="31"/>
       <c r="S82" s="32"/>
       <c r="T82" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="n">
         <v>140</v>
       </c>
@@ -6515,30 +7045,50 @@
         <v>77</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="30"/>
+        <v>335</v>
+      </c>
+      <c r="F83" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="J83" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
+      <c r="L83" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N83" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P83" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q83" s="30"/>
       <c r="R83" s="31"/>
       <c r="S83" s="32"/>
       <c r="T83" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="25" t="n">
         <v>141</v>
       </c>
@@ -6549,17 +7099,21 @@
         <v>77</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
+      <c r="J84" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K84" s="30" t="s">
+        <v>342</v>
+      </c>
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
       <c r="N84" s="30"/>
@@ -6569,10 +7123,10 @@
       <c r="R84" s="31"/>
       <c r="S84" s="32"/>
       <c r="T84" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="25" t="n">
         <v>142</v>
       </c>
@@ -6583,30 +7137,50 @@
         <v>77</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="30"/>
+        <v>344</v>
+      </c>
+      <c r="F85" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
+      <c r="L85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N85" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P85" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q85" s="30"/>
       <c r="R85" s="31"/>
       <c r="S85" s="32"/>
       <c r="T85" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="n">
         <v>143</v>
       </c>
@@ -6617,30 +7191,50 @@
         <v>77</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="30"/>
+        <v>350</v>
+      </c>
+      <c r="F86" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="J86" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
+      <c r="L86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="O86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P86" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q86" s="30"/>
       <c r="R86" s="31"/>
       <c r="S86" s="32"/>
       <c r="T86" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="25" t="n">
         <v>144</v>
       </c>
@@ -6651,30 +7245,50 @@
         <v>77</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="30"/>
+        <v>356</v>
+      </c>
+      <c r="F87" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
+      <c r="L87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N87" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="O87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P87" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q87" s="30"/>
       <c r="R87" s="31"/>
       <c r="S87" s="32"/>
       <c r="T87" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="25" t="n">
         <v>145</v>
       </c>
@@ -6685,17 +7299,21 @@
         <v>77</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
+      <c r="J88" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" s="30" t="s">
+        <v>342</v>
+      </c>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
       <c r="N88" s="30"/>
@@ -6705,10 +7323,10 @@
       <c r="R88" s="31"/>
       <c r="S88" s="32"/>
       <c r="T88" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="25" t="n">
         <v>146</v>
       </c>
@@ -6719,17 +7337,21 @@
         <v>77</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
+      <c r="J89" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K89" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L89" s="30"/>
       <c r="M89" s="30"/>
       <c r="N89" s="30"/>
@@ -6739,7 +7361,7 @@
       <c r="R89" s="31"/>
       <c r="S89" s="32"/>
       <c r="T89" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="124.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6750,13 +7372,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
@@ -6784,13 +7406,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
@@ -6818,13 +7440,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
@@ -6852,13 +7474,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
@@ -6886,13 +7508,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
@@ -6909,7 +7531,7 @@
       <c r="R94" s="31"/>
       <c r="S94" s="32"/>
       <c r="T94" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,13 +7542,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
@@ -6943,7 +7565,7 @@
       <c r="R95" s="31"/>
       <c r="S95" s="32"/>
       <c r="T95" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,13 +7576,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
@@ -6977,7 +7599,7 @@
       <c r="R96" s="31"/>
       <c r="S96" s="32"/>
       <c r="T96" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,13 +7610,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
@@ -7011,7 +7633,7 @@
       <c r="R97" s="31"/>
       <c r="S97" s="32"/>
       <c r="T97" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,13 +7644,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
@@ -7045,7 +7667,7 @@
       <c r="R98" s="31"/>
       <c r="S98" s="32"/>
       <c r="T98" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,13 +7678,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
@@ -7079,7 +7701,7 @@
       <c r="R99" s="31"/>
       <c r="S99" s="32"/>
       <c r="T99" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,13 +7712,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
@@ -7113,7 +7735,7 @@
       <c r="R100" s="31"/>
       <c r="S100" s="32"/>
       <c r="T100" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,13 +7746,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
@@ -7147,7 +7769,7 @@
       <c r="R101" s="31"/>
       <c r="S101" s="32"/>
       <c r="T101" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,13 +7780,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
@@ -7181,7 +7803,7 @@
       <c r="R102" s="31"/>
       <c r="S102" s="32"/>
       <c r="T102" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,13 +7814,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
@@ -7215,7 +7837,7 @@
       <c r="R103" s="31"/>
       <c r="S103" s="32"/>
       <c r="T103" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,13 +7848,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
@@ -7249,7 +7871,7 @@
       <c r="R104" s="31"/>
       <c r="S104" s="32"/>
       <c r="T104" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7260,13 +7882,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
@@ -7283,7 +7905,7 @@
       <c r="R105" s="31"/>
       <c r="S105" s="32"/>
       <c r="T105" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7294,13 +7916,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
@@ -7317,7 +7939,7 @@
       <c r="R106" s="31"/>
       <c r="S106" s="32"/>
       <c r="T106" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,13 +7950,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
@@ -7351,7 +7973,7 @@
       <c r="R107" s="31"/>
       <c r="S107" s="32"/>
       <c r="T107" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,13 +7984,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
@@ -7385,7 +8007,7 @@
       <c r="R108" s="31"/>
       <c r="S108" s="32"/>
       <c r="T108" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7396,13 +8018,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
@@ -7419,7 +8041,7 @@
       <c r="R109" s="31"/>
       <c r="S109" s="32"/>
       <c r="T109" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,13 +8052,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
@@ -7453,7 +8075,7 @@
       <c r="R110" s="31"/>
       <c r="S110" s="32"/>
       <c r="T110" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7464,13 +8086,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
@@ -7487,7 +8109,7 @@
       <c r="R111" s="31"/>
       <c r="S111" s="32"/>
       <c r="T111" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7498,13 +8120,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
@@ -7521,7 +8143,7 @@
       <c r="R112" s="31"/>
       <c r="S112" s="32"/>
       <c r="T112" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17212,7 +17834,7 @@
   <autoFilter ref="A9:T112">
     <filterColumn colId="2">
       <filters>
-        <filter val="RAD"/>
+        <filter val="VPS"/>
       </filters>
     </filterColumn>
     <sortState ref="A10:T112">
@@ -17228,8 +17850,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J22 L10:M23 O10:O23 J25:J26 L25:M27 O25:O27 J29:J30 L29:M112 O29:O112 J32:J45 J65:J112" type="list">
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J17 L10:M23 O10:O23 J22 L25:M27 O25:O27 J26 L29:M112 O29:O112 J30 J32 J34:J45 J90:J112" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17243,6 +17865,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q14:Q15 Q23" type="list">
       <formula1>Summary!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J18:J21 J25 J29 J33 J65:J89" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -17286,7 +17912,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>64</v>
@@ -17294,7 +17920,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>72</v>
@@ -18347,24 +18973,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18372,13 +18998,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18386,41 +19012,41 @@
         <v>58</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18428,69 +19054,69 @@
         <v>77</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>348</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C10" s="39" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C11" s="39" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18498,13 +19124,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C12" s="39" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18512,41 +19138,41 @@
         <v>58</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C13" s="39" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C14" s="39" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C15" s="39" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>356</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18554,55 +19180,55 @@
         <v>77</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C16" s="39" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C17" s="39" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C18" s="39" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C19" s="39" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18610,13 +19236,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C20" s="39" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18624,41 +19250,41 @@
         <v>58</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C21" s="39" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C22" s="39" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C23" s="39" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>365</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18666,55 +19292,55 @@
         <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C24" s="39" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C25" s="39" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="C26" s="39" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C27" s="39" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18722,13 +19348,13 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C28" s="39" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18736,41 +19362,41 @@
         <v>58</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C29" s="39" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C30" s="39" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C31" s="39" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>374</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18778,49 +19404,49 @@
         <v>77</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C32" s="39" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>375</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C33" s="39" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>376</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C34" s="39" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C35" s="39" t="n">
         <v>195</v>
@@ -18834,7 +19460,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C36" s="39" t="n">
         <v>211</v>
@@ -18848,7 +19474,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C37" s="39" t="n">
         <v>227</v>
@@ -18859,10 +19485,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C38" s="39" t="n">
         <v>243</v>
@@ -18873,10 +19499,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C39" s="39" t="n">
         <v>259</v>
@@ -18890,7 +19516,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C40" s="39" t="n">
         <v>275</v>
@@ -18901,10 +19527,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C41" s="39" t="n">
         <v>291</v>
@@ -18915,10 +19541,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="C42" s="39" t="n">
         <v>307</v>
@@ -18929,10 +19555,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C43" s="39" t="n">
         <v>196</v>
@@ -18946,7 +19572,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C44" s="39" t="n">
         <v>212</v>
@@ -18960,7 +19586,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C45" s="39" t="n">
         <v>228</v>
@@ -18971,10 +19597,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C46" s="39" t="n">
         <v>244</v>
@@ -18985,10 +19611,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C47" s="39" t="n">
         <v>260</v>
@@ -19002,7 +19628,7 @@
         <v>77</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C48" s="39" t="n">
         <v>276</v>
@@ -19013,10 +19639,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C49" s="39" t="n">
         <v>292</v>
@@ -19027,10 +19653,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="C50" s="39" t="n">
         <v>308</v>

--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="467">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -371,7 +371,7 @@
   </si>
   <si>
     <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale  “Conclusioni”. 
-L'applicativo non gestisce le sezioni opzionali “DICOM Object Catalog”, “Quesito diagnostico”, "Storia_Clinica", “Precedenti esami eseguiti” e “Suggerimenti per il medico prescrittore”.</t>
+L'applicativo attualmente non gestisce le sezioni opzionali “DICOM Object Catalog”, “Quesito diagnostico”, "Storia_Clinica", “Precedenti esami eseguiti” e “Suggerimenti per il medico prescrittore”.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT4</t>
@@ -382,7 +382,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale “Conclusioni”, non gestisce la altre sezioni opzionali.</t>
+    <t xml:space="preserve">L'applicativo  gestisce la sezione opzionale “Conclusioni”, attualmente  non gestisce la altre sezioni opzionali.</t>
   </si>
   <si>
     <t xml:space="preserve">VPS</t>
@@ -396,6 +396,15 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T10:29:06Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22f4473bc0eeec45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.8d5a010eff7541a5336b2fb9f9d844ba96a79547455f6842e2a746e8a4724b80.e932171865^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT2</t>
   </si>
   <si>
@@ -404,6 +413,15 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T10:31:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c7a36fd3761c1e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.8d5a010eff7541a5336b2fb9f9d844ba96a79547455f6842e2a746e8a4724b80.8a16112560^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT3</t>
   </si>
   <si>
@@ -412,12 +430,24 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T10:32:50Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03d4508b442488b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.51730b294d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo non gestisce le sezioni opzionali "Inquadramento clinico iniziale", "Encounters", "Decorso Ospedaliero", "Complicanze", "Interventi, Prestazioni, Consulenze e Richieste", "Accertamenti", "Parametri Vitali", "erapia farmacologica in Pronto Soccorso", "Piano di cura alla dimissione", "Terapia farmacologica alla dimissione".</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -498,7 +528,10 @@
     <t xml:space="preserve">"title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicazione mostra il messaggio di errore, errore che verrà poi gestito in back-office.</t>
+    <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, raccomandando di riprovare in un secondo momento l’operazione e nel caso non si dovesse risolvere in tempi brevi di contattare l’help-desk aziendale per la risoluzione.
+Il servizio di manutenzione software aziendale, analizzerà giornalmente i log per rilevare questa tipologia di errore ed interverrà autonomamente, o sotto richiesta dell’help-desk, per la risoluzione dell’errore.
+Risolto l’errore, il medico sarà contattato per riprendere il processo documentale dal punto in cui si era bloccato al fine di consentire il re-invio al gateway per la validazione.
+Se l’operatore sanitario, in collaborazione con l’help-desk, hanno la possibilità di correggere l’errore (es: anagrafica errata) è possibile ri-validare il documento dopo la correzione. In caso contrario il processo clinico prosegue e in backoffice si valuterà se è possibile risolvere il problema e quindi rivalidare il documento. Se il Gateway non fosse disponibile in fase di validazione il processo clinico prosegue, il documento verrà memorizzato nel DataBase aziendale ed al ripristinarsi del servizio il documento re-inviato al gateway per la validazione e successivi step di invio al Repository Aziendale e al FSE regionale.</t>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -508,6 +541,15 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T11:45:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2188ad1aed46ac74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Il campo purpose_of_use non è valorizzato","status":403</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
@@ -588,6 +630,15 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T11:54:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac4de89c2709400c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"detail":"Il campo action_id non è corretto","status":403</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
@@ -601,7 +652,14 @@
     <t xml:space="preserve">2023-04-14T13:34:46Z</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: ESOCKETTIMEDOUT</t>
+    <t xml:space="preserve">TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, raccomandando di riprovare in un secondo momento l’operazione e nel caso non si dovesse risolvere in tempi brevi di contattare l’help-desk aziendale per la risoluzione.
+Il servizio di manutenzione software aziendale, analizzerà giornalmente i log per rilevare questa tipologia di errore ed interverrà autonomamente, o sotto richiesta dell’help-desk, per la risoluzione dell’errore.
+Risolto l’errore, il medico sarà contattato per riprendere il processo documentale dal punto in cui si era bloccato al fine di consentire il re-invio al gateway per la validazione.
+Se il Gateway non fosse disponibile in fase di validazione il processo clinico prosegue, il documento verrà memorizzato nel DataBase aziendale ed al ripristinarsi del servizio il documento re-inviato al gateway per la validazione e successivi step di invio al Repository Aziendale e al FSE regionale.
+Per quanto riguarda gli errori di timeout non sono previste code di reinvio automatico. Ogni errore sarà gestito puntualmente come sopra descritto.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -724,6 +782,9 @@
   </si>
   <si>
     <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'participant' is not complete. One of '{\"urn:hl7-org:v3\":associatedEntity}' is expected."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In caso di segnalazione di errore da parte gateway sul campo confidentialityCode, viene segnalato l’errore all’utente medico che potrà correggere e quindi riattivare il processo di validazione. Nel caso non ci riuscisse l’errore sarà segnalato all’help-desk che prenderà contatto con il medico per la risoluzione.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT6_KO</t>
@@ -951,7 +1012,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L’applicativo non gestisce la sezione </t>
+      <t xml:space="preserve">L’applicativo  attualmente non gestisce la sezione </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">L’applicativo non gestisce la sezione </t>
+      <t xml:space="preserve">L’applicativo  attualmente non gestisce la sezione </t>
     </r>
     <r>
       <rPr>
@@ -1046,7 +1107,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non gestisce la sezione “Identificativi del documento”</t>
+    <t xml:space="preserve">L’applicativo attualmente  non gestisce la sezione “Identificativi del documento”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT5_KO</t>
@@ -1056,6 +1117,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T12:24:58Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363573d6d7b68d98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.687ee8ad67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
@@ -1063,11 +1136,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T12:35:10Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffb6f843161336d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.cd7d39d83a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-47| codice fiscale 'prvctt01a41l219g' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT7_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T13:02:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414757ebcb0a8577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.8449b9183b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']","status":422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT8_KO</t>
@@ -1078,6 +1175,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:08:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79e338d788dfdbe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.48eb337bc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-12| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT9_KO</t>
   </si>
   <si>
@@ -1085,6 +1194,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:13:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02f13148b27eacbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.0a37caec45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-15| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT10_KO</t>
   </si>
   <si>
@@ -1092,11 +1213,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:37:22Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9b511a8c14906915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.933b707517^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT11_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T13:47:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4e1390875ece926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.64f64ba698^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.","status":400</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT12_KO</t>
@@ -1107,6 +1252,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T13:54:17Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715c6d19a8b0aafc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.1e9442a1a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT13_KO</t>
   </si>
   <si>
@@ -1114,6 +1268,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:00:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10a46f959066ddc7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.3ee2fa24e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b1| Sezione Modalità di Trasporto: la sezione DEVE essere presente],[ERRORE-b2| Sezione Modalità di Trasporto: la sezione deve contenere l'elemento templateId valorizzato con l'attributo @root='2.16.840.1.113883.2.9.10.1.6.20'],[ERRORE-b3| Sezione Modalità di Trasporto: la sezione DEVE contenere un elemento 'text' e un solo elemento 'entry']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT14_KO</t>
   </si>
   <si>
@@ -1121,11 +1287,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:02:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afa8b44faa340ec1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.05c6f7c688^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b6| Sezione Motivo della Visita: la sezione DEVE contenere l'elemento 'text']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT15_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T14:12:43Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b76c1d18f29bde2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.f2cd89b701^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b11| Sezione Motivo della visita: l'elemento entry/observation/value relativo al \"Problema Principale\" DEVE essere valorizzato col value set ProblemaPrincipale_VPS],[ERRORE-b15| Sezione Motivo della visita: l'elemento entry relativo alla \"Causa di accesso\" DEVE contenere l'elemento value valorizzato tramite una stringa]","status":422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT16_KO</t>
@@ -1136,11 +1326,26 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:16:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36d33a04c1ea4307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.8aa954ecf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b83| Sezione Triage: l'elemento entry/observation/value DEVE essere valorizzato col value set CodiceTriage_VPS]","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT17_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione “Inquadramento clinico iniziale”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT18_KO</t>
@@ -1165,6 +1370,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione “Encounters”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT21_KO</t>
   </si>
   <si>
@@ -1172,6 +1380,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione "Complicanze"</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT22_KO</t>
   </si>
   <si>
@@ -1179,11 +1390,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:21:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18122451243df4c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.07c7a0fc97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore semantico.","detail":"[ERRORE-b28| Sezione Dimissione: l'entry/act/performer/assignedEntity/assignedPerson/name DEVE contenere gli elementi 'family' e 'given']","status":422</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T14:42:21Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a828a2c0c2bbcc90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.8cf0edbcc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title":"Errore semantico.","detail":"[ERRORE-b33| Sezione Dimissione: l'entry/act/entryRelationship relativo all'Esito DEVE contenere un elemento 'value' valorizzato secondo il value set \"EsitoTrattamento_VPS\" - @codeSystem='2.16.840.1.113883.2.9.6.1.54.5'],[ERRORE-b239| Sezione Dimissione - \"Diagnosi di Dimissione\": l'elemento entry/act/entryRelationship/observation deve contenere l'elemento 'value' con attributo @codeSystem='2.16.840.1.113883.6.103']","status":422</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT24_KO</t>
@@ -1194,6 +1429,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo non gestisce la sezione "Terapia Farmacologica alla dimissione"</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT25_KO</t>
   </si>
   <si>
@@ -1201,6 +1439,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:49:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1cb598d05f0f11e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.6b62ee35c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: X]","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT26_KO</t>
   </si>
   <si>
@@ -1208,11 +1458,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24T14:56:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aee5c5c1f85e4ad6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.bf4859700a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 99, 88]","status":400</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT27_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24T15:00:12Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea7c1f4a38986ff8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10908.4.4.3.f32553ca5d44db347ff4f6151d862584d343b60b5b3c96d4ce935e67096a0714.b8eafc0db3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: XXX.00]","status":400</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT28_KO</t>
@@ -1593,7 +1867,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1669,6 +1943,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1810,7 +2090,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1957,6 +2237,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2109,7 +2393,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2480,7 @@
   </sheetPr>
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3303,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3692,7 +3976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>11</v>
       </c>
@@ -3736,7 +4020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="n">
         <v>12</v>
       </c>
@@ -3780,7 +4064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="n">
         <v>13</v>
       </c>
@@ -3818,7 +4102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="n">
         <v>14</v>
       </c>
@@ -3856,7 +4140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="n">
         <v>24</v>
       </c>
@@ -3872,11 +4156,21 @@
       <c r="E18" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="F18" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -3890,7 +4184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>25</v>
       </c>
@@ -3901,16 +4195,26 @@
         <v>77</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="F19" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -3924,7 +4228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>26</v>
       </c>
@@ -3935,16 +4239,26 @@
         <v>77</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+        <v>89</v>
+      </c>
+      <c r="F20" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -3958,7 +4272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>27</v>
       </c>
@@ -3969,17 +4283,21 @@
         <v>77</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
@@ -3992,7 +4310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>29</v>
       </c>
@@ -4003,10 +4321,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
@@ -4023,10 +4341,10 @@
       <c r="R22" s="31"/>
       <c r="S22" s="32"/>
       <c r="T22" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>31</v>
       </c>
@@ -4037,22 +4355,22 @@
         <v>58</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>45030</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>64</v>
@@ -4065,22 +4383,22 @@
         <v>64</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="34"/>
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
       <c r="T23" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
         <v>32</v>
       </c>
@@ -4088,13 +4406,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
@@ -4111,10 +4429,10 @@
       <c r="R24" s="31"/>
       <c r="S24" s="32"/>
       <c r="T24" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="n">
         <v>35</v>
       </c>
@@ -4125,30 +4443,50 @@
         <v>77</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="F25" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="L25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
       <c r="T25" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="n">
         <v>37</v>
       </c>
@@ -4159,10 +4497,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
@@ -4179,10 +4517,10 @@
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
       <c r="T26" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="n">
         <v>39</v>
       </c>
@@ -4193,22 +4531,22 @@
         <v>58</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>45030</v>
       </c>
       <c r="G27" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>64</v>
@@ -4221,22 +4559,22 @@
         <v>64</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="34"/>
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
       <c r="T27" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="n">
         <v>40</v>
       </c>
@@ -4244,13 +4582,13 @@
         <v>47</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
@@ -4267,10 +4605,10 @@
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
       <c r="T28" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="135.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>43</v>
       </c>
@@ -4281,30 +4619,50 @@
         <v>77</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+        <v>113</v>
+      </c>
+      <c r="F29" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
+      <c r="L29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="31"/>
       <c r="S29" s="32"/>
       <c r="T29" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>45</v>
       </c>
@@ -4315,10 +4673,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -4337,10 +4695,10 @@
       </c>
       <c r="S30" s="32"/>
       <c r="T30" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="n">
         <v>47</v>
       </c>
@@ -4351,16 +4709,16 @@
         <v>58</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>45030</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -4374,10 +4732,14 @@
       <c r="M31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30" t="s">
-        <v>112</v>
+      <c r="N31" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="Q31" s="34"/>
       <c r="R31" s="31" t="s">
@@ -4385,10 +4747,10 @@
       </c>
       <c r="S31" s="32"/>
       <c r="T31" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="n">
         <v>48</v>
       </c>
@@ -4396,13 +4758,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
@@ -4421,10 +4783,10 @@
       </c>
       <c r="S32" s="32"/>
       <c r="T32" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="35.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="n">
         <v>51</v>
       </c>
@@ -4435,32 +4797,46 @@
         <v>77</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="F33" s="28" t="n">
+        <v>45070</v>
+      </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
+      <c r="L33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="31" t="s">
         <v>64</v>
       </c>
       <c r="S33" s="32"/>
       <c r="T33" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="n">
         <v>63</v>
       </c>
@@ -4471,10 +4847,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
@@ -4491,10 +4867,10 @@
       <c r="R34" s="31"/>
       <c r="S34" s="32"/>
       <c r="T34" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="n">
         <v>64</v>
       </c>
@@ -4505,10 +4881,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
@@ -4525,10 +4901,10 @@
       <c r="R35" s="31"/>
       <c r="S35" s="32"/>
       <c r="T35" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>65</v>
       </c>
@@ -4539,10 +4915,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
@@ -4559,10 +4935,10 @@
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
       <c r="T36" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>66</v>
       </c>
@@ -4573,10 +4949,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
@@ -4593,10 +4969,10 @@
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
       <c r="T37" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>67</v>
       </c>
@@ -4607,10 +4983,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
@@ -4627,10 +5003,10 @@
       <c r="R38" s="31"/>
       <c r="S38" s="32"/>
       <c r="T38" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>68</v>
       </c>
@@ -4641,10 +5017,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
@@ -4661,10 +5037,10 @@
       <c r="R39" s="31"/>
       <c r="S39" s="32"/>
       <c r="T39" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>69</v>
       </c>
@@ -4675,10 +5051,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
@@ -4695,10 +5071,10 @@
       <c r="R40" s="31"/>
       <c r="S40" s="32"/>
       <c r="T40" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>70</v>
       </c>
@@ -4709,10 +5085,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
@@ -4729,10 +5105,10 @@
       <c r="R41" s="31"/>
       <c r="S41" s="32"/>
       <c r="T41" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>71</v>
       </c>
@@ -4743,10 +5119,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -4763,10 +5139,10 @@
       <c r="R42" s="31"/>
       <c r="S42" s="32"/>
       <c r="T42" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>72</v>
       </c>
@@ -4777,10 +5153,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
@@ -4797,10 +5173,10 @@
       <c r="R43" s="31"/>
       <c r="S43" s="32"/>
       <c r="T43" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>73</v>
       </c>
@@ -4811,10 +5187,10 @@
         <v>48</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -4831,10 +5207,10 @@
       <c r="R44" s="31"/>
       <c r="S44" s="32"/>
       <c r="T44" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="113.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>74</v>
       </c>
@@ -4845,10 +5221,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
@@ -4865,10 +5241,10 @@
       <c r="R45" s="31"/>
       <c r="S45" s="32"/>
       <c r="T45" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>75</v>
       </c>
@@ -4879,22 +5255,22 @@
         <v>58</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F46" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>64</v>
@@ -4907,22 +5283,22 @@
         <v>64</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="Q46" s="34"/>
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
       <c r="T46" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>76</v>
       </c>
@@ -4933,22 +5309,22 @@
         <v>58</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F47" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>64</v>
@@ -4961,22 +5337,22 @@
         <v>64</v>
       </c>
       <c r="N47" s="30" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O47" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P47" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q47" s="30"/>
       <c r="R47" s="31"/>
       <c r="S47" s="32"/>
       <c r="T47" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="158.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="n">
         <v>77</v>
       </c>
@@ -4987,22 +5363,22 @@
         <v>58</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F48" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>64</v>
@@ -5015,22 +5391,22 @@
         <v>64</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="30" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="Q48" s="30"/>
       <c r="R48" s="31"/>
       <c r="S48" s="32"/>
       <c r="T48" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="true" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="n">
         <v>78</v>
       </c>
@@ -5041,22 +5417,22 @@
         <v>58</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F49" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>64</v>
@@ -5069,22 +5445,22 @@
         <v>64</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O49" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q49" s="30"/>
       <c r="R49" s="31"/>
       <c r="S49" s="32"/>
       <c r="T49" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="true" ht="147.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="n">
         <v>79</v>
       </c>
@@ -5095,22 +5471,22 @@
         <v>58</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F50" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J50" s="30" t="s">
         <v>64</v>
@@ -5123,22 +5499,22 @@
         <v>64</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O50" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q50" s="30"/>
       <c r="R50" s="31"/>
       <c r="S50" s="32"/>
       <c r="T50" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="true" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="n">
         <v>80</v>
       </c>
@@ -5149,22 +5525,22 @@
         <v>58</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F51" s="28" t="n">
         <v>45033</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>64</v>
@@ -5177,22 +5553,22 @@
         <v>64</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O51" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P51" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q51" s="30"/>
       <c r="R51" s="31"/>
       <c r="S51" s="32"/>
       <c r="T51" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="n">
         <v>81</v>
       </c>
@@ -5203,22 +5579,22 @@
         <v>58</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F52" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>64</v>
@@ -5231,22 +5607,22 @@
         <v>64</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O52" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q52" s="30"/>
       <c r="R52" s="31"/>
       <c r="S52" s="32"/>
       <c r="T52" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="true" ht="169.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>82</v>
       </c>
@@ -5257,22 +5633,22 @@
         <v>58</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F53" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>64</v>
@@ -5285,22 +5661,22 @@
         <v>64</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O53" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P53" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q53" s="30"/>
       <c r="R53" s="31"/>
       <c r="S53" s="32"/>
       <c r="T53" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>83</v>
       </c>
@@ -5311,22 +5687,22 @@
         <v>58</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F54" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J54" s="30" t="s">
         <v>64</v>
@@ -5339,22 +5715,22 @@
         <v>64</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O54" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P54" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q54" s="30"/>
       <c r="R54" s="31"/>
       <c r="S54" s="32"/>
       <c r="T54" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>84</v>
       </c>
@@ -5365,22 +5741,22 @@
         <v>58</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F55" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J55" s="30" t="s">
         <v>64</v>
@@ -5393,22 +5769,22 @@
         <v>64</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O55" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P55" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q55" s="30"/>
       <c r="R55" s="31"/>
       <c r="S55" s="32"/>
       <c r="T55" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="n">
         <v>85</v>
       </c>
@@ -5419,22 +5795,22 @@
         <v>58</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F56" s="28" t="n">
         <v>45034</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="J56" s="30" t="s">
         <v>64</v>
@@ -5447,22 +5823,22 @@
         <v>64</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="O56" s="30" t="s">
         <v>64</v>
       </c>
       <c r="P56" s="30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q56" s="30"/>
       <c r="R56" s="31"/>
       <c r="S56" s="32"/>
       <c r="T56" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
         <v>86</v>
       </c>
@@ -5473,10 +5849,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
@@ -5486,7 +5862,7 @@
         <v>72</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
@@ -5497,10 +5873,10 @@
       <c r="R57" s="31"/>
       <c r="S57" s="32"/>
       <c r="T57" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="n">
         <v>87</v>
       </c>
@@ -5511,10 +5887,10 @@
         <v>58</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="29"/>
@@ -5524,7 +5900,7 @@
         <v>72</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -5535,10 +5911,10 @@
       <c r="R58" s="31"/>
       <c r="S58" s="32"/>
       <c r="T58" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="n">
         <v>88</v>
       </c>
@@ -5549,10 +5925,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
@@ -5562,7 +5938,7 @@
         <v>72</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
@@ -5573,10 +5949,10 @@
       <c r="R59" s="31"/>
       <c r="S59" s="32"/>
       <c r="T59" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="84.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="n">
         <v>89</v>
       </c>
@@ -5587,10 +5963,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
@@ -5600,7 +5976,7 @@
         <v>72</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -5611,10 +5987,10 @@
       <c r="R60" s="31"/>
       <c r="S60" s="32"/>
       <c r="T60" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="84.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="n">
         <v>90</v>
       </c>
@@ -5625,10 +6001,10 @@
         <v>58</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
@@ -5638,7 +6014,7 @@
         <v>72</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
@@ -5649,10 +6025,10 @@
       <c r="R61" s="31"/>
       <c r="S61" s="32"/>
       <c r="T61" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="n">
         <v>91</v>
       </c>
@@ -5663,10 +6039,10 @@
         <v>58</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -5676,7 +6052,7 @@
         <v>72</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
@@ -5687,10 +6063,10 @@
       <c r="R62" s="31"/>
       <c r="S62" s="32"/>
       <c r="T62" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="n">
         <v>92</v>
       </c>
@@ -5701,10 +6077,10 @@
         <v>58</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
@@ -5714,7 +6090,7 @@
         <v>72</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
@@ -5725,10 +6101,10 @@
       <c r="R63" s="31"/>
       <c r="S63" s="32"/>
       <c r="T63" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="56.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="n">
         <v>93</v>
       </c>
@@ -5739,10 +6115,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
@@ -5752,7 +6128,7 @@
         <v>72</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
@@ -5763,10 +6139,10 @@
       <c r="R64" s="31"/>
       <c r="S64" s="32"/>
       <c r="T64" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="25" t="n">
         <v>122</v>
       </c>
@@ -5777,30 +6153,50 @@
         <v>77</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="30"/>
+        <v>245</v>
+      </c>
+      <c r="F65" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
+      <c r="L65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="Q65" s="30"/>
       <c r="R65" s="31"/>
       <c r="S65" s="32"/>
       <c r="T65" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="25" t="n">
         <v>123</v>
       </c>
@@ -5811,30 +6207,50 @@
         <v>77</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="30"/>
+        <v>251</v>
+      </c>
+      <c r="F66" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
+      <c r="L66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N66" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q66" s="30"/>
       <c r="R66" s="31"/>
       <c r="S66" s="32"/>
       <c r="T66" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="n">
         <v>124</v>
       </c>
@@ -5845,30 +6261,50 @@
         <v>77</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="30"/>
+        <v>257</v>
+      </c>
+      <c r="F67" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
+      <c r="L67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="Q67" s="30"/>
       <c r="R67" s="31"/>
       <c r="S67" s="32"/>
       <c r="T67" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="25" t="n">
         <v>125</v>
       </c>
@@ -5879,30 +6315,50 @@
         <v>77</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="30"/>
+        <v>263</v>
+      </c>
+      <c r="F68" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
+      <c r="L68" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q68" s="30"/>
       <c r="R68" s="31"/>
       <c r="S68" s="32"/>
       <c r="T68" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="n">
         <v>126</v>
       </c>
@@ -5913,30 +6369,50 @@
         <v>77</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="30"/>
+        <v>269</v>
+      </c>
+      <c r="F69" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
+      <c r="L69" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M69" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O69" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q69" s="30"/>
       <c r="R69" s="31"/>
       <c r="S69" s="32"/>
       <c r="T69" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="25" t="n">
         <v>127</v>
       </c>
@@ -5947,30 +6423,50 @@
         <v>77</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="30"/>
+        <v>275</v>
+      </c>
+      <c r="F70" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
+      <c r="L70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q70" s="30"/>
       <c r="R70" s="31"/>
       <c r="S70" s="32"/>
       <c r="T70" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="25" t="n">
         <v>128</v>
       </c>
@@ -5981,30 +6477,50 @@
         <v>77</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="30"/>
+        <v>281</v>
+      </c>
+      <c r="F71" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I71" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
+      <c r="L71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q71" s="30"/>
       <c r="R71" s="31"/>
       <c r="S71" s="32"/>
       <c r="T71" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="n">
         <v>129</v>
       </c>
@@ -6015,30 +6531,50 @@
         <v>77</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="30"/>
+        <v>287</v>
+      </c>
+      <c r="F72" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
+      <c r="L72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P72" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q72" s="30"/>
       <c r="R72" s="31"/>
       <c r="S72" s="32"/>
       <c r="T72" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="25" t="n">
         <v>130</v>
       </c>
@@ -6049,30 +6585,50 @@
         <v>77</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="30"/>
+        <v>292</v>
+      </c>
+      <c r="F73" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
+      <c r="L73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N73" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q73" s="30"/>
       <c r="R73" s="31"/>
       <c r="S73" s="32"/>
       <c r="T73" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="25" t="n">
         <v>131</v>
       </c>
@@ -6083,30 +6639,50 @@
         <v>77</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="30"/>
+        <v>298</v>
+      </c>
+      <c r="F74" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
+      <c r="L74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P74" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q74" s="30"/>
       <c r="R74" s="31"/>
       <c r="S74" s="32"/>
       <c r="T74" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="25" t="n">
         <v>132</v>
       </c>
@@ -6117,30 +6693,50 @@
         <v>77</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="30"/>
+        <v>304</v>
+      </c>
+      <c r="F75" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="J75" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
+      <c r="L75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="O75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q75" s="30"/>
       <c r="R75" s="31"/>
       <c r="S75" s="32"/>
       <c r="T75" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="n">
         <v>133</v>
       </c>
@@ -6151,30 +6747,50 @@
         <v>77</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="F76" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
+      <c r="L76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P76" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q76" s="30"/>
       <c r="R76" s="31"/>
       <c r="S76" s="32"/>
       <c r="T76" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="n">
         <v>134</v>
       </c>
@@ -6185,17 +6801,21 @@
         <v>77</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="J77" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K77" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
@@ -6205,10 +6825,10 @@
       <c r="R77" s="31"/>
       <c r="S77" s="32"/>
       <c r="T77" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="25" t="n">
         <v>135</v>
       </c>
@@ -6219,17 +6839,21 @@
         <v>77</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
+      <c r="J78" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K78" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
@@ -6239,10 +6863,10 @@
       <c r="R78" s="31"/>
       <c r="S78" s="32"/>
       <c r="T78" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="25" t="n">
         <v>136</v>
       </c>
@@ -6253,17 +6877,21 @@
         <v>77</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="J79" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L79" s="30"/>
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
@@ -6273,10 +6901,10 @@
       <c r="R79" s="31"/>
       <c r="S79" s="32"/>
       <c r="T79" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="n">
         <v>137</v>
       </c>
@@ -6287,17 +6915,21 @@
         <v>77</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
+      <c r="J80" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="30" t="s">
+        <v>324</v>
+      </c>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
@@ -6307,10 +6939,10 @@
       <c r="R80" s="31"/>
       <c r="S80" s="32"/>
       <c r="T80" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="25" t="n">
         <v>138</v>
       </c>
@@ -6321,17 +6953,21 @@
         <v>77</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
+      <c r="J81" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K81" s="30" t="s">
+        <v>327</v>
+      </c>
       <c r="L81" s="30"/>
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
@@ -6341,10 +6977,10 @@
       <c r="R81" s="31"/>
       <c r="S81" s="32"/>
       <c r="T81" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="25" t="n">
         <v>139</v>
       </c>
@@ -6355,30 +6991,50 @@
         <v>77</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="30"/>
+        <v>329</v>
+      </c>
+      <c r="F82" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="J82" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
+      <c r="L82" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q82" s="30"/>
       <c r="R82" s="31"/>
       <c r="S82" s="32"/>
       <c r="T82" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="n">
         <v>140</v>
       </c>
@@ -6389,30 +7045,50 @@
         <v>77</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="30"/>
+        <v>335</v>
+      </c>
+      <c r="F83" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="J83" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
+      <c r="L83" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N83" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P83" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q83" s="30"/>
       <c r="R83" s="31"/>
       <c r="S83" s="32"/>
       <c r="T83" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="25" t="n">
         <v>141</v>
       </c>
@@ -6423,17 +7099,21 @@
         <v>77</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
+      <c r="J84" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K84" s="30" t="s">
+        <v>342</v>
+      </c>
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
       <c r="N84" s="30"/>
@@ -6443,10 +7123,10 @@
       <c r="R84" s="31"/>
       <c r="S84" s="32"/>
       <c r="T84" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="25" t="n">
         <v>142</v>
       </c>
@@ -6457,30 +7137,50 @@
         <v>77</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="30"/>
+        <v>344</v>
+      </c>
+      <c r="F85" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
+      <c r="L85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N85" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P85" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q85" s="30"/>
       <c r="R85" s="31"/>
       <c r="S85" s="32"/>
       <c r="T85" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="n">
         <v>143</v>
       </c>
@@ -6491,30 +7191,50 @@
         <v>77</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="30"/>
+        <v>350</v>
+      </c>
+      <c r="F86" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="J86" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
+      <c r="L86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="O86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P86" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q86" s="30"/>
       <c r="R86" s="31"/>
       <c r="S86" s="32"/>
       <c r="T86" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="25" t="n">
         <v>144</v>
       </c>
@@ -6525,30 +7245,50 @@
         <v>77</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="30"/>
+        <v>356</v>
+      </c>
+      <c r="F87" s="28" t="n">
+        <v>45070</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
+      <c r="L87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N87" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="O87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P87" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="Q87" s="30"/>
       <c r="R87" s="31"/>
       <c r="S87" s="32"/>
       <c r="T87" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="25" t="n">
         <v>145</v>
       </c>
@@ -6559,17 +7299,21 @@
         <v>77</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
+      <c r="J88" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" s="30" t="s">
+        <v>342</v>
+      </c>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
       <c r="N88" s="30"/>
@@ -6579,10 +7323,10 @@
       <c r="R88" s="31"/>
       <c r="S88" s="32"/>
       <c r="T88" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="25" t="n">
         <v>146</v>
       </c>
@@ -6593,17 +7337,21 @@
         <v>77</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
+      <c r="J89" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K89" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="L89" s="30"/>
       <c r="M89" s="30"/>
       <c r="N89" s="30"/>
@@ -6613,7 +7361,7 @@
       <c r="R89" s="31"/>
       <c r="S89" s="32"/>
       <c r="T89" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="124.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,13 +7372,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
@@ -6658,13 +7406,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
@@ -6692,13 +7440,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
@@ -6726,13 +7474,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
@@ -6760,13 +7508,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
@@ -6783,7 +7531,7 @@
       <c r="R94" s="31"/>
       <c r="S94" s="32"/>
       <c r="T94" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6794,13 +7542,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
@@ -6817,7 +7565,7 @@
       <c r="R95" s="31"/>
       <c r="S95" s="32"/>
       <c r="T95" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,13 +7576,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
@@ -6851,7 +7599,7 @@
       <c r="R96" s="31"/>
       <c r="S96" s="32"/>
       <c r="T96" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6862,13 +7610,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
@@ -6885,7 +7633,7 @@
       <c r="R97" s="31"/>
       <c r="S97" s="32"/>
       <c r="T97" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6896,13 +7644,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
@@ -6919,7 +7667,7 @@
       <c r="R98" s="31"/>
       <c r="S98" s="32"/>
       <c r="T98" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6930,13 +7678,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
@@ -6953,7 +7701,7 @@
       <c r="R99" s="31"/>
       <c r="S99" s="32"/>
       <c r="T99" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,13 +7712,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
@@ -6987,7 +7735,7 @@
       <c r="R100" s="31"/>
       <c r="S100" s="32"/>
       <c r="T100" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,13 +7746,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
@@ -7021,7 +7769,7 @@
       <c r="R101" s="31"/>
       <c r="S101" s="32"/>
       <c r="T101" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,13 +7780,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
@@ -7055,7 +7803,7 @@
       <c r="R102" s="31"/>
       <c r="S102" s="32"/>
       <c r="T102" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="84.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7066,13 +7814,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
@@ -7089,7 +7837,7 @@
       <c r="R103" s="31"/>
       <c r="S103" s="32"/>
       <c r="T103" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7100,13 +7848,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
@@ -7123,7 +7871,7 @@
       <c r="R104" s="31"/>
       <c r="S104" s="32"/>
       <c r="T104" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,13 +7882,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
@@ -7157,7 +7905,7 @@
       <c r="R105" s="31"/>
       <c r="S105" s="32"/>
       <c r="T105" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,13 +7916,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
@@ -7191,7 +7939,7 @@
       <c r="R106" s="31"/>
       <c r="S106" s="32"/>
       <c r="T106" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,13 +7950,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
@@ -7225,7 +7973,7 @@
       <c r="R107" s="31"/>
       <c r="S107" s="32"/>
       <c r="T107" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,13 +7984,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
@@ -7259,7 +8007,7 @@
       <c r="R108" s="31"/>
       <c r="S108" s="32"/>
       <c r="T108" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,13 +8018,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
@@ -7293,7 +8041,7 @@
       <c r="R109" s="31"/>
       <c r="S109" s="32"/>
       <c r="T109" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,13 +8052,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
@@ -7327,7 +8075,7 @@
       <c r="R110" s="31"/>
       <c r="S110" s="32"/>
       <c r="T110" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7338,13 +8086,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
@@ -7361,7 +8109,7 @@
       <c r="R111" s="31"/>
       <c r="S111" s="32"/>
       <c r="T111" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="95.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,13 +8120,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
@@ -7395,7 +8143,7 @@
       <c r="R112" s="31"/>
       <c r="S112" s="32"/>
       <c r="T112" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17086,7 +17834,7 @@
   <autoFilter ref="A9:T112">
     <filterColumn colId="2">
       <filters>
-        <filter val="RAD"/>
+        <filter val="VPS"/>
       </filters>
     </filterColumn>
     <sortState ref="A10:T112">
@@ -17102,8 +17850,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J22 L10:M23 O10:O23 J25:J26 L25:M27 O25:O27 J29:J30 L29:M112 O29:O112 J32:J45 J65:J112" type="list">
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J17 L10:M23 O10:O23 J22 L25:M27 O25:O27 J26 L29:M112 O29:O112 J30 J32 J34:J45 J90:J112" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17117,6 +17865,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q14:Q15 Q23" type="list">
       <formula1>Summary!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J18:J21 J25 J29 J33 J65:J89" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -17139,7 +17891,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -17151,32 +17903,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18196,7 +18948,7 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
@@ -18221,24 +18973,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>329</v>
+        <v>416</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18246,13 +18998,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>331</v>
+        <v>416</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18260,41 +19012,41 @@
         <v>58</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>333</v>
+        <v>416</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>336</v>
+        <v>416</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>339</v>
+        <v>416</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18302,69 +19054,69 @@
         <v>77</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>341</v>
+        <v>416</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>343</v>
+        <v>416</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>346</v>
+        <v>416</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="38" t="n">
+        <v>416</v>
+      </c>
+      <c r="C10" s="39" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>348</v>
+      <c r="D10" s="39" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C11" s="39" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>350</v>
+      <c r="D11" s="39" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18372,13 +19124,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C12" s="39" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>351</v>
+      <c r="D12" s="39" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18386,41 +19138,41 @@
         <v>58</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C13" s="39" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>352</v>
+      <c r="D13" s="40" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C14" s="39" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>353</v>
+      <c r="D14" s="39" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C15" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>354</v>
+      <c r="D15" s="40" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18428,55 +19180,55 @@
         <v>77</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C16" s="39" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>355</v>
+      <c r="D16" s="40" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C17" s="39" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>356</v>
+      <c r="D17" s="40" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>438</v>
+      </c>
+      <c r="C18" s="39" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>357</v>
+      <c r="D18" s="40" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C19" s="39" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>359</v>
+      <c r="D19" s="39" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18484,13 +19236,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C20" s="39" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>360</v>
+      <c r="D20" s="39" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18498,41 +19250,41 @@
         <v>58</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C21" s="39" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>361</v>
+      <c r="D21" s="40" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C22" s="39" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>362</v>
+      <c r="D22" s="39" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C23" s="39" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>363</v>
+      <c r="D23" s="40" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18540,55 +19292,55 @@
         <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C24" s="39" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>364</v>
+      <c r="D24" s="40" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C25" s="39" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>365</v>
+      <c r="D25" s="40" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C26" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="C26" s="39" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>366</v>
+      <c r="D26" s="40" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C27" s="39" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>368</v>
+      <c r="D27" s="39" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18596,13 +19348,13 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C28" s="39" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>369</v>
+      <c r="D28" s="39" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18610,41 +19362,41 @@
         <v>58</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C29" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C29" s="39" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>370</v>
+      <c r="D29" s="41" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C30" s="39" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>371</v>
+      <c r="D30" s="39" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C31" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C31" s="39" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>372</v>
+      <c r="D31" s="40" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18652,54 +19404,54 @@
         <v>77</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C32" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C32" s="39" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>373</v>
+      <c r="D32" s="40" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C33" s="39" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>374</v>
+      <c r="D33" s="40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C34" s="38" t="n">
+        <v>456</v>
+      </c>
+      <c r="C34" s="39" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>375</v>
+      <c r="D34" s="40" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C35" s="39" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="39" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18708,12 +19460,12 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C36" s="39" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="39" t="n">
         <v>220</v>
       </c>
     </row>
@@ -18722,40 +19474,40 @@
         <v>58</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C37" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C37" s="39" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="40" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C38" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C38" s="39" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="39" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C39" s="39" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="40" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18764,54 +19516,54 @@
         <v>77</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C40" s="39" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="40" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C41" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C41" s="39" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="40" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C42" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="C42" s="39" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="40" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C43" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C43" s="39" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="39" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18820,12 +19572,12 @@
         <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C44" s="39" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="39" t="n">
         <v>223</v>
       </c>
     </row>
@@ -18834,40 +19586,40 @@
         <v>58</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C45" s="39" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="40" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C46" s="39" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="39" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C47" s="39" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="40" t="n">
         <v>271</v>
       </c>
     </row>
@@ -18876,40 +19628,40 @@
         <v>77</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C48" s="39" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="40" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C49" s="39" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="40" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C50" s="38" t="n">
+        <v>466</v>
+      </c>
+      <c r="C50" s="39" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="40" t="n">
         <v>319</v>
       </c>
     </row>

--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="577">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -692,6 +692,12 @@
     "status": 400</t>
   </si>
   <si>
+    <t xml:space="preserve">L'errore inerente il livello di riservatezza del documento (confidentialityCode),
+in questo caso una mancanza di dati, verrà segnalato in real-time al medico che
+potrà inserire il dato mancante e reinviare immediatamente il documento completo
+del dato mancante, così da effettuare la validazione.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
   </si>
   <si>
@@ -734,6 +740,11 @@
     <t xml:space="preserve">"title": "Errore semantico.",
     "detail": "[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']",
     "status": 422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'errore inerente il livello di riservatezza del documento (confidentialityCode),
+in questo caso un livello di riservatezza "Restricted", verrà segnalato in real-time al medico che
+potrà correggere il dato (livello) e reinviare immediatamente il documento, così da effettuare la validazione.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
@@ -2225,7 +2236,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2286,12 +2297,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2454,7 +2459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2571,10 +2576,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -2599,7 +2600,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2611,16 +2612,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4953,11 +4950,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J121" activeCellId="0" sqref="J121"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+      <selection pane="bottomRight" activeCell="Q96" activeCellId="0" sqref="Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5233,25 +5230,25 @@
       <c r="G10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34" t="s">
+      <c r="J10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5272,24 +5269,24 @@
         <v>57</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5310,24 +5307,24 @@
         <v>61</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5348,24 +5345,24 @@
         <v>63</v>
       </c>
       <c r="F13" s="28"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5391,25 +5388,25 @@
       <c r="G14" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34" t="s">
+      <c r="J14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5435,25 +5432,25 @@
       <c r="G15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34" t="s">
+      <c r="J15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5473,25 +5470,25 @@
       <c r="E16" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="31" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5511,25 +5508,25 @@
       <c r="E17" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="31" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34" t="s">
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5549,31 +5546,31 @@
       <c r="E18" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="37" t="n">
+      <c r="F18" s="36" t="n">
         <v>45114</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34" t="s">
+      <c r="J18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5594,24 +5591,24 @@
         <v>88</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5632,24 +5629,24 @@
         <v>90</v>
       </c>
       <c r="F20" s="28"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31" t="s">
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34" t="s">
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5670,24 +5667,24 @@
         <v>92</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34" t="s">
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5704,7 +5701,7 @@
       <c r="D22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="28" t="n">
@@ -5713,35 +5710,35 @@
       <c r="G22" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="31" t="s">
+      <c r="J22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="31" t="s">
+      <c r="O22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34" t="s">
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5758,44 +5755,44 @@
       <c r="D23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N23" s="31" t="s">
+      <c r="J23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="31" t="s">
+      <c r="O23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34" t="s">
+      <c r="Q23" s="35"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5812,44 +5809,44 @@
       <c r="D24" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="31" t="s">
+      <c r="J24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O24" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="31" t="s">
+      <c r="O24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34" t="s">
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5866,44 +5863,44 @@
       <c r="D25" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="37" t="n">
+      <c r="F25" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="31" t="s">
+      <c r="J25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="31" t="s">
+      <c r="O25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34" t="s">
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5920,44 +5917,44 @@
       <c r="D26" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="38" t="s">
         <v>112</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" s="31" t="s">
+      <c r="J26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="31" t="s">
+      <c r="O26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34" t="s">
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5974,44 +5971,44 @@
       <c r="D27" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="38" t="s">
         <v>112</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="31" t="s">
+      <c r="J27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="31" t="s">
+      <c r="O27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34" t="s">
+      <c r="Q27" s="35"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6028,44 +6025,44 @@
       <c r="D28" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="31" t="s">
+      <c r="J28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="O28" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="31" t="s">
+      <c r="O28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34" t="s">
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6082,44 +6079,44 @@
       <c r="D29" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="37" t="n">
+      <c r="F29" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="31" t="s">
+      <c r="J29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="O29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="31" t="s">
+      <c r="O29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34" t="s">
+      <c r="Q29" s="30"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6142,36 +6139,36 @@
       <c r="F30" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" s="31" t="s">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="O30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="40" t="s">
+      <c r="O30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34" t="s">
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6194,36 +6191,36 @@
       <c r="F31" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N31" s="31" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" s="40" t="s">
+      <c r="O31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34" t="s">
+      <c r="Q31" s="35"/>
+      <c r="R31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6243,39 +6240,39 @@
       <c r="E32" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="41" t="n">
+      <c r="F32" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N32" s="31" t="s">
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="O32" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="40" t="s">
+      <c r="O32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34" t="s">
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6295,39 +6292,39 @@
       <c r="E33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="37" t="n">
+      <c r="F33" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N33" s="31" t="s">
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="O33" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="31" t="s">
+      <c r="O33" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34" t="s">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6350,38 +6347,36 @@
       <c r="F34" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="31" t="s">
+      <c r="J34" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="O34" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34" t="s">
+      <c r="O34" s="30"/>
+      <c r="P34" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6396,46 +6391,46 @@
         <v>48</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F35" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" s="31" t="s">
+      <c r="I35" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="O35" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="31" t="s">
+      <c r="J35" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34" t="s">
+      <c r="Q35" s="30"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6450,46 +6445,44 @@
         <v>48</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G36" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N36" s="31" t="s">
+      <c r="I36" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="O36" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34" t="s">
+      <c r="J36" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6504,46 +6497,46 @@
         <v>48</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F37" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N37" s="31" t="s">
+      <c r="H37" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="O37" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="31" t="s">
+      <c r="I37" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34" t="s">
+      <c r="Q37" s="30"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6558,46 +6551,46 @@
         <v>48</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F38" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G38" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="30" t="s">
+      <c r="G38" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="J38" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N38" s="31" t="s">
+      <c r="H38" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="O38" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="31" t="s">
+      <c r="I38" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="34" t="s">
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6612,46 +6605,46 @@
         <v>48</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F39" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G39" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="I39" s="30" t="s">
+      <c r="G39" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="J39" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="31" t="s">
+      <c r="H39" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="O39" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="31" t="s">
+      <c r="I39" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34" t="s">
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6666,46 +6659,46 @@
         <v>48</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F40" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" s="30" t="s">
+      <c r="G40" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="J40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N40" s="31" t="s">
+      <c r="H40" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="O40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" s="31" t="s">
+      <c r="I40" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34" t="s">
+      <c r="Q40" s="30"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6720,46 +6713,46 @@
         <v>48</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F41" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="I41" s="30" t="s">
+      <c r="G41" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="J41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="31" t="s">
+      <c r="H41" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" s="31" t="s">
+      <c r="I41" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="O41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34" t="s">
+      <c r="Q41" s="30"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6774,30 +6767,30 @@
         <v>48</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F42" s="28"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31" t="s">
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34" t="s">
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6812,30 +6805,30 @@
         <v>48</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F43" s="28"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="34" t="s">
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6850,46 +6843,46 @@
         <v>48</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F44" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="30" t="s">
+      <c r="G44" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="J44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N44" s="31" t="s">
+      <c r="H44" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="O44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" s="31" t="s">
+      <c r="I44" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N44" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P44" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="34" t="s">
+      <c r="Q44" s="30"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6904,30 +6897,30 @@
         <v>48</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F45" s="28"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31" t="s">
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="34" t="s">
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6942,46 +6935,46 @@
         <v>64</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F46" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G46" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="35" t="s">
+      <c r="G46" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="J46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N46" s="31" t="s">
+      <c r="H46" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="O46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" s="31" t="s">
+      <c r="I46" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="34" t="s">
+      <c r="J46" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6996,46 +6989,46 @@
         <v>64</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F47" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G47" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I47" s="35" t="s">
+      <c r="G47" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="J47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="31" t="s">
+      <c r="H47" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="O47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" s="31" t="s">
+      <c r="I47" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P47" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34" t="s">
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7050,46 +7043,46 @@
         <v>64</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F48" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G48" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="I48" s="35" t="s">
+      <c r="G48" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="J48" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N48" s="31" t="s">
+      <c r="H48" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="O48" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="34" t="s">
+      <c r="I48" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7104,46 +7097,46 @@
         <v>64</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F49" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G49" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="35" t="s">
+      <c r="G49" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="J49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N49" s="31" t="s">
+      <c r="H49" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="O49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" s="31" t="s">
+      <c r="I49" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P49" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="34" t="s">
+      <c r="Q49" s="30"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7158,46 +7151,46 @@
         <v>64</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F50" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G50" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="I50" s="35" t="s">
+      <c r="G50" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="J50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N50" s="31" t="s">
+      <c r="H50" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="O50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P50" s="31" t="s">
+      <c r="I50" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O50" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="34" t="s">
+      <c r="Q50" s="30"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7212,46 +7205,46 @@
         <v>64</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F51" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G51" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="I51" s="35" t="s">
+      <c r="G51" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="J51" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" s="31" t="s">
+      <c r="H51" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="O51" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P51" s="31" t="s">
+      <c r="I51" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P51" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="34" t="s">
+      <c r="Q51" s="30"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7266,46 +7259,46 @@
         <v>64</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F52" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G52" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" s="35" t="s">
+      <c r="G52" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="J52" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M52" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N52" s="31" t="s">
+      <c r="H52" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="O52" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P52" s="31" t="s">
+      <c r="I52" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P52" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34" t="s">
+      <c r="Q52" s="30"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7320,46 +7313,46 @@
         <v>64</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F53" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G53" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="I53" s="35" t="s">
+      <c r="G53" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N53" s="31" t="s">
+      <c r="H53" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="O53" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P53" s="31" t="s">
+      <c r="I53" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J53" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O53" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P53" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34" t="s">
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7374,46 +7367,46 @@
         <v>64</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F54" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G54" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I54" s="35" t="s">
+      <c r="G54" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="J54" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M54" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N54" s="31" t="s">
+      <c r="H54" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="O54" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P54" s="31" t="s">
+      <c r="I54" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M54" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N54" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O54" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P54" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34" t="s">
+      <c r="Q54" s="30"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7428,46 +7421,46 @@
         <v>64</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F55" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G55" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="I55" s="35" t="s">
+      <c r="G55" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="J55" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M55" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N55" s="31" t="s">
+      <c r="H55" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="O55" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" s="31" t="s">
+      <c r="I55" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P55" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34" t="s">
+      <c r="Q55" s="30"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7482,46 +7475,46 @@
         <v>64</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F56" s="28" t="n">
         <v>45119</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="I56" s="35" t="s">
+      <c r="G56" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="J56" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" s="31" t="s">
+      <c r="H56" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="O56" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" s="31" t="s">
+      <c r="I56" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34" t="s">
+      <c r="Q56" s="30"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7536,30 +7529,30 @@
         <v>64</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K57" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34" t="s">
+      <c r="K57" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7574,30 +7567,30 @@
         <v>64</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="36"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K58" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34" t="s">
+      <c r="K58" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7612,30 +7605,30 @@
         <v>64</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K59" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34" t="s">
+      <c r="K59" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7650,30 +7643,30 @@
         <v>64</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E60" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K60" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34" t="s">
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7688,30 +7681,30 @@
         <v>64</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K61" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34" t="s">
+      <c r="K61" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7726,30 +7719,30 @@
         <v>64</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="F62" s="37"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K62" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="34" t="s">
+      <c r="K62" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7764,30 +7757,30 @@
         <v>64</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="F63" s="37"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="36"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K63" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34" t="s">
+      <c r="K63" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7802,30 +7795,30 @@
         <v>64</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="F64" s="36"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K64" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34" t="s">
+      <c r="K64" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7840,46 +7833,46 @@
         <v>81</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="F65" s="37" t="n">
+        <v>287</v>
+      </c>
+      <c r="F65" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="H65" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="I65" s="35" t="s">
+      <c r="G65" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="J65" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N65" s="31" t="s">
+      <c r="H65" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="O65" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P65" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34" t="s">
+      <c r="I65" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M65" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="O65" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7894,46 +7887,46 @@
         <v>81</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="F66" s="37" t="n">
+        <v>293</v>
+      </c>
+      <c r="F66" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G66" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="H66" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="I66" s="35" t="s">
+      <c r="G66" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="J66" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M66" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N66" s="31" t="s">
+      <c r="H66" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="O66" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P66" s="31" t="s">
+      <c r="I66" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M66" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P66" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="34" t="s">
+      <c r="Q66" s="30"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7948,46 +7941,46 @@
         <v>81</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="37" t="n">
+        <v>299</v>
+      </c>
+      <c r="F67" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G67" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="I67" s="35" t="s">
+      <c r="G67" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="J67" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M67" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N67" s="31" t="s">
+      <c r="H67" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="O67" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P67" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34" t="s">
+      <c r="I67" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8002,46 +7995,46 @@
         <v>81</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="F68" s="37" t="n">
+        <v>305</v>
+      </c>
+      <c r="F68" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G68" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="I68" s="35" t="s">
+      <c r="G68" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="J68" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M68" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N68" s="31" t="s">
+      <c r="H68" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="O68" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P68" s="31" t="s">
+      <c r="I68" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M68" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P68" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="34" t="s">
+      <c r="Q68" s="30"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8056,46 +8049,46 @@
         <v>81</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F69" s="37" t="n">
+        <v>311</v>
+      </c>
+      <c r="F69" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G69" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="I69" s="35" t="s">
+      <c r="G69" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="J69" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M69" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N69" s="31" t="s">
+      <c r="H69" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="O69" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P69" s="31" t="s">
+      <c r="I69" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M69" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="O69" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P69" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="34" t="s">
+      <c r="Q69" s="30"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8110,46 +8103,46 @@
         <v>81</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="F70" s="37" t="n">
+        <v>317</v>
+      </c>
+      <c r="F70" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G70" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="I70" s="35" t="s">
+      <c r="G70" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="J70" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M70" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N70" s="31" t="s">
+      <c r="H70" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="O70" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P70" s="31" t="s">
+      <c r="I70" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M70" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P70" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="34" t="s">
+      <c r="Q70" s="30"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8164,46 +8157,46 @@
         <v>81</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="F71" s="37" t="n">
+        <v>323</v>
+      </c>
+      <c r="F71" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G71" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="I71" s="35" t="s">
+      <c r="G71" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="J71" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M71" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N71" s="31" t="s">
+      <c r="H71" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="O71" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P71" s="31" t="s">
+      <c r="I71" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M71" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N71" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="O71" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P71" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="34" t="s">
+      <c r="Q71" s="30"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8218,46 +8211,46 @@
         <v>81</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="F72" s="37" t="n">
+        <v>329</v>
+      </c>
+      <c r="F72" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G72" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="I72" s="35" t="s">
+      <c r="G72" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="J72" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M72" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N72" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="O72" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P72" s="31" t="s">
+      <c r="H72" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O72" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P72" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="34" t="s">
+      <c r="Q72" s="30"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8272,46 +8265,46 @@
         <v>81</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="F73" s="37" t="n">
+        <v>334</v>
+      </c>
+      <c r="F73" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G73" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="I73" s="35" t="s">
+      <c r="G73" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="J73" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M73" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N73" s="31" t="s">
+      <c r="H73" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="O73" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P73" s="31" t="s">
+      <c r="I73" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N73" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P73" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="33"/>
-      <c r="T73" s="34" t="s">
+      <c r="Q73" s="30"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8326,46 +8319,46 @@
         <v>81</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="F74" s="37" t="n">
+        <v>340</v>
+      </c>
+      <c r="F74" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G74" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="I74" s="35" t="s">
+      <c r="G74" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="J74" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M74" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N74" s="31" t="s">
+      <c r="H74" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="O74" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P74" s="31" t="s">
+      <c r="I74" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P74" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="34" t="s">
+      <c r="Q74" s="30"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8380,46 +8373,46 @@
         <v>81</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="F75" s="37" t="n">
+        <v>346</v>
+      </c>
+      <c r="F75" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G75" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="I75" s="35" t="s">
+      <c r="G75" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="J75" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M75" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N75" s="31" t="s">
+      <c r="H75" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="O75" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P75" s="31" t="s">
+      <c r="I75" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="J75" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="O75" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P75" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="34" t="s">
+      <c r="Q75" s="30"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8434,46 +8427,46 @@
         <v>81</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="F76" s="37" t="n">
+        <v>352</v>
+      </c>
+      <c r="F76" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="H76" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="I76" s="35" t="s">
+      <c r="G76" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="J76" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M76" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N76" s="31" t="s">
+      <c r="H76" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="O76" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P76" s="31" t="s">
+      <c r="I76" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M76" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P76" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="33"/>
-      <c r="T76" s="34" t="s">
+      <c r="Q76" s="30"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8488,30 +8481,30 @@
         <v>81</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="F77" s="37"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" s="36"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K77" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="34" t="s">
+      <c r="K77" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8526,30 +8519,30 @@
         <v>81</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E78" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K78" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="34" t="s">
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8564,30 +8557,30 @@
         <v>81</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="F79" s="37"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K79" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="34" t="s">
+      <c r="K79" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8602,30 +8595,30 @@
         <v>81</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K80" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="34" t="s">
+      <c r="K80" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8640,30 +8633,30 @@
         <v>81</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K81" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="34" t="s">
+      <c r="K81" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8678,46 +8671,46 @@
         <v>81</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F82" s="37" t="n">
+        <v>371</v>
+      </c>
+      <c r="F82" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G82" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I82" s="35" t="s">
+      <c r="G82" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="J82" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M82" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N82" s="31" t="s">
+      <c r="H82" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="O82" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P82" s="31" t="s">
+      <c r="I82" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="J82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P82" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="34" t="s">
+      <c r="Q82" s="30"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8732,46 +8725,46 @@
         <v>81</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="F83" s="37" t="n">
+        <v>377</v>
+      </c>
+      <c r="F83" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G83" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="I83" s="35" t="s">
+      <c r="G83" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="J83" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M83" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N83" s="31" t="s">
+      <c r="H83" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="O83" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P83" s="31" t="s">
+      <c r="I83" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="J83" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N83" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P83" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="34" t="s">
+      <c r="Q83" s="30"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8786,30 +8779,30 @@
         <v>81</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K84" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="34" t="s">
+      <c r="K84" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8824,46 +8817,46 @@
         <v>81</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="F85" s="37" t="n">
+        <v>386</v>
+      </c>
+      <c r="F85" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G85" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="I85" s="35" t="s">
+      <c r="G85" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="J85" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M85" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N85" s="31" t="s">
+      <c r="H85" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="O85" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P85" s="31" t="s">
+      <c r="I85" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N85" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P85" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="34" t="s">
+      <c r="Q85" s="30"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8878,46 +8871,46 @@
         <v>81</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F86" s="37" t="n">
+        <v>392</v>
+      </c>
+      <c r="F86" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G86" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="I86" s="35" t="s">
+      <c r="G86" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J86" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M86" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N86" s="31" t="s">
+      <c r="H86" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="O86" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P86" s="31" t="s">
+      <c r="I86" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="J86" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="O86" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P86" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q86" s="31"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="34" t="s">
+      <c r="Q86" s="30"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8932,46 +8925,46 @@
         <v>81</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="37" t="n">
+        <v>398</v>
+      </c>
+      <c r="F87" s="36" t="n">
         <v>45119</v>
       </c>
-      <c r="G87" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="H87" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="I87" s="35" t="s">
+      <c r="G87" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="J87" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M87" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N87" s="31" t="s">
+      <c r="H87" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="O87" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P87" s="31" t="s">
+      <c r="I87" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N87" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="O87" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P87" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q87" s="31"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="34" t="s">
+      <c r="Q87" s="30"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8986,30 +8979,30 @@
         <v>81</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="F88" s="36"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K88" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="34" t="s">
+      <c r="K88" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9024,30 +9017,30 @@
         <v>81</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="36"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K89" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
-      <c r="Q89" s="31"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="34" t="s">
+      <c r="K89" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="32"/>
+      <c r="T89" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9062,36 +9055,36 @@
         <v>104</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F90" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G90" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="H90" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="I90" s="30" t="s">
+      <c r="G90" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="J90" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="31"/>
-      <c r="P90" s="31"/>
-      <c r="Q90" s="31"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="33"/>
-      <c r="T90" s="34" t="s">
+      <c r="H90" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9106,30 +9099,30 @@
         <v>104</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F91" s="28"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="31" t="s">
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K91" s="31" t="s">
+      <c r="K91" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="34" t="s">
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9144,30 +9137,30 @@
         <v>104</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F92" s="28"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="31" t="s">
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K92" s="31" t="s">
+      <c r="K92" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="32"/>
-      <c r="S92" s="33"/>
-      <c r="T92" s="34" t="s">
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9182,30 +9175,30 @@
         <v>104</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F93" s="28"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31" t="s">
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="31" t="s">
+      <c r="K93" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="31"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="33"/>
-      <c r="T93" s="34" t="s">
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="32"/>
+      <c r="T93" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9220,46 +9213,44 @@
         <v>104</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F94" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G94" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="H94" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="I94" s="30" t="s">
+      <c r="G94" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="J94" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M94" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N94" s="31" t="s">
+      <c r="H94" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="J94" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M94" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N94" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="O94" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P94" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q94" s="31"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="33"/>
-      <c r="T94" s="34" t="s">
+      <c r="O94" s="30"/>
+      <c r="P94" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9274,46 +9265,46 @@
         <v>104</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F95" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G95" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="H95" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="I95" s="30" t="s">
+      <c r="G95" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="J95" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M95" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N95" s="31" t="s">
+      <c r="H95" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="O95" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P95" s="31" t="s">
+      <c r="I95" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="J95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="O95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P95" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q95" s="31"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="34" t="s">
+      <c r="Q95" s="30"/>
+      <c r="R95" s="31"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9328,46 +9319,44 @@
         <v>104</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F96" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G96" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="I96" s="30" t="s">
+      <c r="G96" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="J96" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M96" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N96" s="31" t="s">
+      <c r="H96" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="O96" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P96" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q96" s="31"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="33"/>
-      <c r="T96" s="34" t="s">
+      <c r="I96" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J96" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M96" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9382,46 +9371,46 @@
         <v>104</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F97" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G97" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="H97" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="I97" s="30" t="s">
+      <c r="G97" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="J97" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M97" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N97" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="O97" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P97" s="31" t="s">
+      <c r="H97" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="I97" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="J97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N97" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="O97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P97" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="33"/>
-      <c r="T97" s="34" t="s">
+      <c r="Q97" s="30"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9436,46 +9425,46 @@
         <v>104</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F98" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G98" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="H98" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="I98" s="30" t="s">
+      <c r="G98" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="J98" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M98" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N98" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="O98" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P98" s="31" t="s">
+      <c r="H98" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="I98" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="J98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N98" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P98" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q98" s="31"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="33"/>
-      <c r="T98" s="34" t="s">
+      <c r="Q98" s="30"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9490,46 +9479,46 @@
         <v>104</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F99" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G99" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="H99" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="I99" s="30" t="s">
+      <c r="G99" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="J99" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M99" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N99" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="O99" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P99" s="31" t="s">
+      <c r="H99" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="I99" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N99" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="O99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P99" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q99" s="31"/>
-      <c r="R99" s="32"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="34" t="s">
+      <c r="Q99" s="30"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9544,30 +9533,30 @@
         <v>104</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F100" s="28"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="31" t="s">
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K100" s="31" t="s">
+      <c r="K100" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="31"/>
-      <c r="R100" s="32"/>
-      <c r="S100" s="33"/>
-      <c r="T100" s="34" t="s">
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="31"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9582,30 +9571,30 @@
         <v>104</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F101" s="28"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="31" t="s">
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K101" s="31" t="s">
+      <c r="K101" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="33"/>
-      <c r="T101" s="34" t="s">
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9620,46 +9609,46 @@
         <v>104</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F102" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G102" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="H102" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="I102" s="30" t="s">
+      <c r="G102" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="J102" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M102" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N102" s="31" t="s">
+      <c r="H102" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="O102" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P102" s="31" t="s">
+      <c r="I102" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N102" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="O102" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P102" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q102" s="31"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="33"/>
-      <c r="T102" s="34" t="s">
+      <c r="Q102" s="30"/>
+      <c r="R102" s="31"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9674,46 +9663,46 @@
         <v>104</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F103" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G103" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="H103" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="I103" s="30" t="s">
+      <c r="G103" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="J103" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M103" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N103" s="31" t="s">
+      <c r="H103" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="O103" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P103" s="31" t="s">
+      <c r="I103" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N103" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="O103" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P103" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="33"/>
-      <c r="T103" s="34" t="s">
+      <c r="Q103" s="30"/>
+      <c r="R103" s="31"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9728,46 +9717,46 @@
         <v>104</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F104" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G104" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H104" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="I104" s="30" t="s">
+      <c r="G104" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="J104" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M104" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N104" s="31" t="s">
+      <c r="H104" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="O104" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P104" s="31" t="s">
+      <c r="I104" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="J104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N104" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="O104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P104" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q104" s="31"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="33"/>
-      <c r="T104" s="34" t="s">
+      <c r="Q104" s="30"/>
+      <c r="R104" s="31"/>
+      <c r="S104" s="32"/>
+      <c r="T104" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9782,46 +9771,46 @@
         <v>104</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F105" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G105" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="H105" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="I105" s="30" t="s">
+      <c r="G105" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="J105" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M105" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N105" s="31" t="s">
+      <c r="H105" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="O105" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P105" s="31" t="s">
+      <c r="I105" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M105" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N105" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="O105" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P105" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q105" s="31"/>
-      <c r="R105" s="32"/>
-      <c r="S105" s="33"/>
-      <c r="T105" s="34" t="s">
+      <c r="Q105" s="30"/>
+      <c r="R105" s="31"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9836,46 +9825,46 @@
         <v>104</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F106" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G106" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="H106" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="I106" s="30" t="s">
+      <c r="G106" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="J106" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M106" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N106" s="31" t="s">
+      <c r="H106" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="O106" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P106" s="31" t="s">
+      <c r="I106" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="J106" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M106" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N106" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="O106" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P106" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q106" s="31"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="33"/>
-      <c r="T106" s="34" t="s">
+      <c r="Q106" s="30"/>
+      <c r="R106" s="31"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9890,30 +9879,30 @@
         <v>104</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F107" s="28"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="31" t="s">
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K107" s="31" t="s">
+      <c r="K107" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="31"/>
-      <c r="R107" s="32"/>
-      <c r="S107" s="33"/>
-      <c r="T107" s="34" t="s">
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="30"/>
+      <c r="R107" s="31"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9928,30 +9917,30 @@
         <v>104</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F108" s="28"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="31" t="s">
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K108" s="31" t="s">
+      <c r="K108" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="33"/>
-      <c r="T108" s="34" t="s">
+      <c r="L108" s="30"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="30"/>
+      <c r="R108" s="31"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9966,30 +9955,30 @@
         <v>104</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F109" s="28"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="31" t="s">
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K109" s="31" t="s">
+      <c r="K109" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L109" s="31"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="31"/>
-      <c r="R109" s="32"/>
-      <c r="S109" s="33"/>
-      <c r="T109" s="34" t="s">
+      <c r="L109" s="30"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="31"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10004,30 +9993,30 @@
         <v>104</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F110" s="28"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="31" t="s">
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K110" s="31" t="s">
+      <c r="K110" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L110" s="31"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="31"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="33"/>
-      <c r="T110" s="34" t="s">
+      <c r="L110" s="30"/>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="30"/>
+      <c r="R110" s="31"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10042,30 +10031,30 @@
         <v>104</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F111" s="28"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="31" t="s">
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K111" s="31" t="s">
+      <c r="K111" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L111" s="31"/>
-      <c r="M111" s="31"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
-      <c r="P111" s="31"/>
-      <c r="Q111" s="31"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="33"/>
-      <c r="T111" s="34" t="s">
+      <c r="L111" s="30"/>
+      <c r="M111" s="30"/>
+      <c r="N111" s="30"/>
+      <c r="O111" s="30"/>
+      <c r="P111" s="30"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="31"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10080,46 +10069,46 @@
         <v>104</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F112" s="28" t="n">
         <v>45120</v>
       </c>
-      <c r="G112" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="H112" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="I112" s="30" t="s">
+      <c r="G112" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="J112" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="M112" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N112" s="31" t="s">
+      <c r="H112" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="O112" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P112" s="31" t="s">
+      <c r="I112" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="J112" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M112" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N112" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="O112" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P112" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="Q112" s="31"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="33"/>
-      <c r="T112" s="34" t="s">
+      <c r="Q112" s="30"/>
+      <c r="R112" s="31"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10134,36 +10123,36 @@
         <v>48</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F113" s="28" t="n">
         <v>45118</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="H113" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="I113" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="J113" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="33"/>
-      <c r="T113" s="34" t="s">
+      <c r="H113" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="I113" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="J113" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="30"/>
+      <c r="N113" s="30"/>
+      <c r="O113" s="30"/>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="30"/>
+      <c r="R113" s="31"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10178,36 +10167,36 @@
         <v>64</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F114" s="28" t="n">
         <v>45114</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="H114" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="I114" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="J114" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="31"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="31"/>
-      <c r="Q114" s="31"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="33"/>
-      <c r="T114" s="34" t="s">
+      <c r="H114" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="I114" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="J114" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+      <c r="M114" s="30"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="30"/>
+      <c r="P114" s="30"/>
+      <c r="Q114" s="30"/>
+      <c r="R114" s="31"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10222,36 +10211,36 @@
         <v>81</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="F115" s="37" t="n">
+        <v>511</v>
+      </c>
+      <c r="F115" s="36" t="n">
         <v>45114</v>
       </c>
-      <c r="G115" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="H115" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="I115" s="30" t="s">
+      <c r="G115" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="J115" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K115" s="31"/>
-      <c r="L115" s="31"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
-      <c r="P115" s="31"/>
-      <c r="Q115" s="31"/>
-      <c r="R115" s="32"/>
-      <c r="S115" s="33"/>
-      <c r="T115" s="34" t="s">
+      <c r="H115" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="I115" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="J115" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
+      <c r="M115" s="30"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="30"/>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="30"/>
+      <c r="R115" s="31"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10266,36 +10255,36 @@
         <v>104</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F116" s="28" t="n">
         <v>45118</v>
       </c>
-      <c r="G116" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="H116" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="I116" s="30" t="s">
+      <c r="G116" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="J116" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K116" s="31"/>
-      <c r="L116" s="31"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="31"/>
-      <c r="P116" s="31"/>
-      <c r="Q116" s="31"/>
-      <c r="R116" s="32"/>
-      <c r="S116" s="33"/>
-      <c r="T116" s="34" t="s">
+      <c r="H116" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="I116" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="J116" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="30"/>
+      <c r="N116" s="30"/>
+      <c r="O116" s="30"/>
+      <c r="P116" s="30"/>
+      <c r="Q116" s="30"/>
+      <c r="R116" s="31"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15236,24 +15225,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="42" t="s">
         <v>523</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15261,13 +15250,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>525</v>
+        <v>523</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15275,41 +15264,41 @@
         <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>530</v>
+        <v>523</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>533</v>
+        <v>523</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15317,13 +15306,13 @@
         <v>81</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>534</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>535</v>
+        <v>523</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15331,55 +15320,55 @@
         <v>104</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>536</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>537</v>
+        <v>523</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>539</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>540</v>
+        <v>523</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>543</v>
+        <v>523</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C11" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C11" s="40" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>545</v>
+      <c r="D11" s="40" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15387,13 +15376,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C12" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C12" s="40" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>546</v>
+      <c r="D12" s="40" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15401,41 +15390,41 @@
         <v>64</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C13" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C13" s="40" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>547</v>
+      <c r="D13" s="41" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C14" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C14" s="40" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>548</v>
+      <c r="D14" s="40" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C15" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>549</v>
+      <c r="D15" s="41" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15443,13 +15432,13 @@
         <v>81</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C16" s="40" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>550</v>
+      <c r="D16" s="41" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15457,41 +15446,41 @@
         <v>104</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C17" s="40" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>551</v>
+      <c r="D17" s="41" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C18" s="42" t="n">
+        <v>546</v>
+      </c>
+      <c r="C18" s="40" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>552</v>
+      <c r="D18" s="41" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C19" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C19" s="40" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>554</v>
+      <c r="D19" s="40" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15499,13 +15488,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C20" s="40" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>555</v>
+      <c r="D20" s="40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15513,41 +15502,41 @@
         <v>64</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C21" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C21" s="40" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>556</v>
+      <c r="D21" s="41" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C22" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C22" s="40" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>557</v>
+      <c r="D22" s="40" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C23" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C23" s="40" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>558</v>
+      <c r="D23" s="41" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15555,13 +15544,13 @@
         <v>81</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C24" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C24" s="40" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>559</v>
+      <c r="D24" s="41" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15569,41 +15558,41 @@
         <v>104</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C25" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C25" s="40" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>560</v>
+      <c r="D25" s="41" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C26" s="42" t="n">
+        <v>555</v>
+      </c>
+      <c r="C26" s="40" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="43" t="s">
-        <v>561</v>
+      <c r="D26" s="41" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C27" s="40" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>563</v>
+      <c r="D27" s="40" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15611,13 +15600,13 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C28" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C28" s="40" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="42" t="s">
-        <v>564</v>
+      <c r="D28" s="40" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15625,41 +15614,41 @@
         <v>64</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C29" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C29" s="40" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>565</v>
+      <c r="D29" s="42" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C30" s="40" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>566</v>
+      <c r="D30" s="40" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C31" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C31" s="40" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>567</v>
+      <c r="D31" s="41" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15667,13 +15656,13 @@
         <v>81</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C32" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C32" s="40" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>568</v>
+      <c r="D32" s="41" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15681,40 +15670,40 @@
         <v>104</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C33" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C33" s="40" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>569</v>
+      <c r="D33" s="41" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" s="42" t="n">
+        <v>564</v>
+      </c>
+      <c r="C34" s="40" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="43" t="s">
-        <v>570</v>
+      <c r="D34" s="41" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C35" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C35" s="40" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="42" t="n">
+      <c r="D35" s="40" t="n">
         <v>204</v>
       </c>
     </row>
@@ -15723,12 +15712,12 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C36" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C36" s="40" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="42" t="n">
+      <c r="D36" s="40" t="n">
         <v>220</v>
       </c>
     </row>
@@ -15737,40 +15726,40 @@
         <v>64</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C37" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C37" s="40" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="43" t="n">
+      <c r="D37" s="41" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C38" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C38" s="40" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="42" t="n">
+      <c r="D38" s="40" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C39" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C39" s="40" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="43" t="n">
+      <c r="D39" s="41" t="n">
         <v>268</v>
       </c>
     </row>
@@ -15779,12 +15768,12 @@
         <v>81</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C40" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C40" s="40" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="43" t="n">
+      <c r="D40" s="41" t="n">
         <v>284</v>
       </c>
     </row>
@@ -15793,40 +15782,40 @@
         <v>104</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C41" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C41" s="40" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="43" t="n">
+      <c r="D41" s="41" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C42" s="42" t="n">
+        <v>573</v>
+      </c>
+      <c r="C42" s="40" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="43" t="n">
+      <c r="D42" s="41" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C43" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C43" s="40" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="42" t="n">
+      <c r="D43" s="40" t="n">
         <v>207</v>
       </c>
     </row>
@@ -15835,12 +15824,12 @@
         <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C44" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C44" s="40" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="42" t="n">
+      <c r="D44" s="40" t="n">
         <v>223</v>
       </c>
     </row>
@@ -15849,40 +15838,40 @@
         <v>64</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C45" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C45" s="40" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="43" t="n">
+      <c r="D45" s="41" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C46" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C46" s="40" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="42" t="n">
+      <c r="D46" s="40" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C47" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C47" s="40" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="43" t="n">
+      <c r="D47" s="41" t="n">
         <v>271</v>
       </c>
     </row>
@@ -15891,12 +15880,12 @@
         <v>81</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C48" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C48" s="40" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="43" t="n">
+      <c r="D48" s="41" t="n">
         <v>287</v>
       </c>
     </row>
@@ -15905,26 +15894,26 @@
         <v>104</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C49" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C49" s="40" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="43" t="n">
+      <c r="D49" s="41" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C50" s="42" t="n">
+        <v>574</v>
+      </c>
+      <c r="C50" s="40" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="43" t="n">
+      <c r="D50" s="41" t="n">
         <v>319</v>
       </c>
     </row>
@@ -16908,32 +16897,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#01090800000000/AO Ordine Mauriziano/BABELE_WPF/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="577">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O96 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3841,7 +3841,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O96 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4950,11 +4950,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
-      <selection pane="bottomRight" activeCell="Q96" activeCellId="0" sqref="Q96"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="O96" activeCellId="0" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6369,7 +6369,9 @@
       <c r="N34" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="O34" s="30"/>
+      <c r="O34" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="P34" s="30" t="s">
         <v>142</v>
       </c>
@@ -6475,7 +6477,9 @@
       <c r="N36" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="O36" s="30"/>
+      <c r="O36" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="P36" s="30" t="s">
         <v>155</v>
       </c>
@@ -9243,7 +9247,9 @@
       <c r="N94" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="O94" s="30"/>
+      <c r="O94" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="P94" s="30" t="s">
         <v>142</v>
       </c>
@@ -9349,7 +9355,9 @@
       <c r="N96" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="O96" s="30"/>
+      <c r="O96" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="P96" s="30" t="s">
         <v>155</v>
       </c>
@@ -15153,8 +15161,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 L10:M13 O10:O13 J22 J26 J30 J34:J41 L42:M43 O42:O43 J44 L45:M45 O45 L90:M93 O90:O93 J91:J111 L100:M101 O100:O101 L107:M111 O107:O111 J113 L113:M116 O113:O116" type="list">
+  <dataValidations count="9">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 L10:M13 O10:O13 J22 J26 J30 J34:J41 L42:M43 J44 L45:M45 L90:M93 J91:J95 J97:J111 L100:M101 L107:M111 J113 L113:M116" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15162,7 +15170,7 @@
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J14:J17 L14:M41 O14:O41 L44:M44 O44 L46:M89 O46:O89 L94:M99 O94:O99 L102:M106 O102:O106 L112:M112 O112" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J14:J17 L14:M41 L44:M44 L46:M89 L94:M99 L102:M106 L112:M112" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15180,6 +15188,14 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11:J13 J18:J21 J25 J29 J33 J42:J43 J45 J65:J89 J114:J115" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J96" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O14:O116" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -15205,7 +15221,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="O96 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16886,7 +16902,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O96 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
